--- a/Chinese_Family_Name（1k）.xlsx
+++ b/Chinese_Family_Name（1k）.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1019">
   <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>RealFre</t>
-  </si>
-  <si>
     <t>阿</t>
   </si>
   <si>
@@ -3071,6 +3065,14 @@
   </si>
   <si>
     <t>佐</t>
+  </si>
+  <si>
+    <t>NameB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3122,9 +3124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3430,22 +3435,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B2">
         <v>9520</v>
@@ -3453,7 +3458,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3">
         <v>9340</v>
@@ -3461,7 +3466,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B4">
         <v>8960</v>
@@ -3469,7 +3474,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B5">
         <v>6770</v>
@@ -3477,7 +3482,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>6130</v>
@@ -3485,7 +3490,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B7">
         <v>4270</v>
@@ -3493,7 +3498,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B8">
         <v>3260</v>
@@ -3501,7 +3506,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B9">
         <v>2680</v>
@@ -3509,7 +3514,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B10">
         <v>2670</v>
@@ -3517,7 +3522,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B11">
         <v>2520</v>
@@ -3525,7 +3530,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B12">
         <v>1930</v>
@@ -3533,7 +3538,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B13">
         <v>1830</v>
@@ -3541,7 +3546,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B14">
         <v>1720</v>
@@ -3549,7 +3554,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B15">
         <v>1700</v>
@@ -3557,7 +3562,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B16">
         <v>1550</v>
@@ -3565,7 +3570,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B17">
         <v>1510</v>
@@ -3573,7 +3578,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B18">
         <v>1500</v>
@@ -3581,7 +3586,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B19">
         <v>1400</v>
@@ -3589,7 +3594,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20">
         <v>1330</v>
@@ -3597,7 +3602,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B21">
         <v>1260</v>
@@ -3605,7 +3610,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B22">
         <v>1240</v>
@@ -3613,7 +3618,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B23">
         <v>1130</v>
@@ -3621,7 +3626,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B24">
         <v>1010</v>
@@ -3629,7 +3634,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B25">
         <v>932</v>
@@ -3637,7 +3642,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B26">
         <v>917</v>
@@ -3645,7 +3650,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B27">
         <v>881</v>
@@ -3653,7 +3658,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>821</v>
@@ -3661,7 +3666,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29">
         <v>818</v>
@@ -3669,7 +3674,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30">
         <v>815</v>
@@ -3677,7 +3682,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>791</v>
@@ -3685,7 +3690,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B32">
         <v>772</v>
@@ -3693,7 +3698,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B33">
         <v>766</v>
@@ -3701,7 +3706,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B34">
         <v>739</v>
@@ -3709,7 +3714,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>701</v>
@@ -3717,7 +3722,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B36">
         <v>687</v>
@@ -3725,7 +3730,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B37">
         <v>685</v>
@@ -3733,7 +3738,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38">
         <v>677</v>
@@ -3741,7 +3746,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B39">
         <v>667</v>
@@ -3749,7 +3754,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B40">
         <v>642</v>
@@ -3757,7 +3762,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B41">
         <v>633</v>
@@ -3765,7 +3770,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B42">
         <v>632</v>
@@ -3773,7 +3778,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B43">
         <v>632</v>
@@ -3781,7 +3786,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44">
         <v>619</v>
@@ -3789,7 +3794,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B45">
         <v>606</v>
@@ -3797,7 +3802,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B46">
         <v>603</v>
@@ -3805,7 +3810,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>601</v>
@@ -3813,7 +3818,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B48">
         <v>596</v>
@@ -3821,7 +3826,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B49">
         <v>576</v>
@@ -3829,7 +3834,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B50">
         <v>550</v>
@@ -3837,7 +3842,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B51">
         <v>547</v>
@@ -3845,7 +3850,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B52">
         <v>538</v>
@@ -3853,7 +3858,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B53">
         <v>536</v>
@@ -3861,7 +3866,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B54">
         <v>533</v>
@@ -3869,7 +3874,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B55">
         <v>523</v>
@@ -3877,7 +3882,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56">
         <v>509</v>
@@ -3885,7 +3890,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B57">
         <v>499</v>
@@ -3893,7 +3898,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B58">
         <v>487</v>
@@ -3901,7 +3906,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59">
         <v>485</v>
@@ -3909,7 +3914,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B60">
         <v>483</v>
@@ -3917,7 +3922,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B61">
         <v>480</v>
@@ -3925,7 +3930,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B62">
         <v>467</v>
@@ -3933,7 +3938,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B63">
         <v>455</v>
@@ -3941,7 +3946,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>449</v>
@@ -3949,7 +3954,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B65">
         <v>439</v>
@@ -3957,7 +3962,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B66">
         <v>430</v>
@@ -3965,7 +3970,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B67">
         <v>426</v>
@@ -3973,7 +3978,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B68">
         <v>423</v>
@@ -3981,7 +3986,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B69">
         <v>413</v>
@@ -3989,7 +3994,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B70">
         <v>401</v>
@@ -3997,7 +4002,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B71">
         <v>394</v>
@@ -4005,7 +4010,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B72">
         <v>384</v>
@@ -4013,7 +4018,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B73">
         <v>383</v>
@@ -4021,7 +4026,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B74">
         <v>379</v>
@@ -4029,7 +4034,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B75">
         <v>374</v>
@@ -4037,7 +4042,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B76">
         <v>369</v>
@@ -4045,7 +4050,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B77">
         <v>360</v>
@@ -4053,7 +4058,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B78">
         <v>347</v>
@@ -4061,7 +4066,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B79">
         <v>346</v>
@@ -4069,7 +4074,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80">
         <v>336</v>
@@ -4077,7 +4082,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B81">
         <v>320</v>
@@ -4085,7 +4090,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B82">
         <v>319</v>
@@ -4093,7 +4098,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B83">
         <v>288</v>
@@ -4101,7 +4106,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B84">
         <v>285</v>
@@ -4109,7 +4114,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B85">
         <v>281</v>
@@ -4117,7 +4122,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B86">
         <v>274</v>
@@ -4125,7 +4130,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B87">
         <v>274</v>
@@ -4133,7 +4138,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B88">
         <v>272</v>
@@ -4141,7 +4146,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B89">
         <v>264</v>
@@ -4149,7 +4154,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B90">
         <v>264</v>
@@ -4157,7 +4162,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B91">
         <v>264</v>
@@ -4165,7 +4170,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B92">
         <v>262</v>
@@ -4173,7 +4178,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B93">
         <v>254</v>
@@ -4181,7 +4186,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B94">
         <v>249</v>
@@ -4189,7 +4194,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B95">
         <v>246</v>
@@ -4197,7 +4202,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B96">
         <v>240</v>
@@ -4205,7 +4210,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B97">
         <v>240</v>
@@ -4213,7 +4218,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B98">
         <v>239</v>
@@ -4221,7 +4226,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99">
         <v>236</v>
@@ -4229,7 +4234,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B100">
         <v>233</v>
@@ -4237,7 +4242,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B101">
         <v>231</v>
@@ -4245,7 +4250,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B102">
         <v>227</v>
@@ -4253,7 +4258,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B103">
         <v>226</v>
@@ -4261,7 +4266,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B104">
         <v>218</v>
@@ -4269,7 +4274,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B105">
         <v>217</v>
@@ -4277,7 +4282,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B106">
         <v>211</v>
@@ -4285,7 +4290,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B107">
         <v>206</v>
@@ -4293,7 +4298,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B108">
         <v>204</v>
@@ -4301,7 +4306,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B109">
         <v>202</v>
@@ -4309,7 +4314,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110">
         <v>200</v>
@@ -4317,7 +4322,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B111">
         <v>195</v>
@@ -4325,7 +4330,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B112">
         <v>192</v>
@@ -4333,7 +4338,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B113">
         <v>179</v>
@@ -4341,7 +4346,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B114">
         <v>176</v>
@@ -4349,7 +4354,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B115">
         <v>175</v>
@@ -4357,7 +4362,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B116">
         <v>173</v>
@@ -4365,7 +4370,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B117">
         <v>171</v>
@@ -4373,7 +4378,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B118">
         <v>167</v>
@@ -4381,7 +4386,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B119">
         <v>164</v>
@@ -4389,7 +4394,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B120">
         <v>163</v>
@@ -4397,7 +4402,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B121">
         <v>162</v>
@@ -4405,7 +4410,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B122">
         <v>159</v>
@@ -4413,7 +4418,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B123">
         <v>157</v>
@@ -4421,7 +4426,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B124">
         <v>151</v>
@@ -4429,7 +4434,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B125">
         <v>149</v>
@@ -4437,7 +4442,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B126">
         <v>149</v>
@@ -4445,7 +4450,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B127">
         <v>147</v>
@@ -4453,7 +4458,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B128">
         <v>147</v>
@@ -4461,7 +4466,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B129">
         <v>147</v>
@@ -4469,7 +4474,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B130">
         <v>147</v>
@@ -4477,7 +4482,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B131">
         <v>146</v>
@@ -4485,7 +4490,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>140</v>
@@ -4493,7 +4498,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B133">
         <v>137</v>
@@ -4501,7 +4506,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B134">
         <v>134</v>
@@ -4509,7 +4514,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B135">
         <v>133</v>
@@ -4517,7 +4522,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B136">
         <v>132</v>
@@ -4525,7 +4530,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B137">
         <v>131</v>
@@ -4533,7 +4538,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B138">
         <v>129</v>
@@ -4541,7 +4546,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B139">
         <v>126</v>
@@ -4549,7 +4554,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B140">
         <v>120</v>
@@ -4557,7 +4562,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B141">
         <v>115</v>
@@ -4565,7 +4570,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B142">
         <v>110</v>
@@ -4573,7 +4578,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B143">
         <v>109</v>
@@ -4581,7 +4586,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B144">
         <v>109</v>
@@ -4589,7 +4594,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B145">
         <v>109</v>
@@ -4597,7 +4602,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B146">
         <v>109</v>
@@ -4605,7 +4610,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B147">
         <v>106</v>
@@ -4613,7 +4618,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B148">
         <v>106</v>
@@ -4621,7 +4626,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B149">
         <v>105</v>
@@ -4629,7 +4634,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B150">
         <v>105</v>
@@ -4637,7 +4642,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B151">
         <v>103</v>
@@ -4645,7 +4650,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B152">
         <v>103</v>
@@ -4653,7 +4658,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B153">
         <v>101</v>
@@ -4661,7 +4666,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154">
         <v>101</v>
@@ -4669,7 +4674,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B155">
         <v>100</v>
@@ -4677,7 +4682,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B156">
         <v>100</v>
@@ -4685,7 +4690,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B157">
         <v>100</v>
@@ -4693,7 +4698,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B158">
         <v>100</v>
@@ -4701,7 +4706,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B159">
         <v>100</v>
@@ -4709,7 +4714,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B160">
         <v>99</v>
@@ -4717,7 +4722,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B161">
         <v>98</v>
@@ -4725,7 +4730,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B162">
         <v>98</v>
@@ -4733,7 +4738,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B163">
         <v>97</v>
@@ -4741,7 +4746,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B164">
         <v>97</v>
@@ -4749,7 +4754,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B165">
         <v>96</v>
@@ -4757,7 +4762,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B166">
         <v>96</v>
@@ -4765,7 +4770,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B167">
         <v>95</v>
@@ -4773,7 +4778,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B168">
         <v>94</v>
@@ -4781,7 +4786,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B169">
         <v>92</v>
@@ -4789,7 +4794,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B170">
         <v>92</v>
@@ -4797,7 +4802,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B171">
         <v>91</v>
@@ -4805,7 +4810,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B172">
         <v>87</v>
@@ -4813,7 +4818,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B173">
         <v>86</v>
@@ -4821,7 +4826,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B174">
         <v>83</v>
@@ -4829,7 +4834,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B175">
         <v>82</v>
@@ -4837,7 +4842,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B176">
         <v>82</v>
@@ -4845,7 +4850,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B177">
         <v>81</v>
@@ -4853,7 +4858,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B178">
         <v>80</v>
@@ -4861,7 +4866,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B179">
         <v>75</v>
@@ -4869,7 +4874,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B180">
         <v>75</v>
@@ -4877,7 +4882,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B181">
         <v>74</v>
@@ -4885,7 +4890,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B182">
         <v>73.900000000000006</v>
@@ -4893,7 +4898,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B183">
         <v>73</v>
@@ -4901,7 +4906,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B184">
         <v>73</v>
@@ -4909,7 +4914,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B185">
         <v>71</v>
@@ -4917,7 +4922,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B186">
         <v>70</v>
@@ -4925,7 +4930,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B187">
         <v>69</v>
@@ -4933,7 +4938,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B188">
         <v>68</v>
@@ -4941,7 +4946,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B189">
         <v>67</v>
@@ -4949,7 +4954,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B190">
         <v>67</v>
@@ -4957,7 +4962,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B191">
         <v>64</v>
@@ -4965,7 +4970,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B192">
         <v>62</v>
@@ -4973,7 +4978,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B193">
         <v>59</v>
@@ -4981,7 +4986,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B194">
         <v>58</v>
@@ -4989,7 +4994,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B195">
         <v>58</v>
@@ -4997,7 +5002,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B196">
         <v>58</v>
@@ -5005,7 +5010,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B197">
         <v>57</v>
@@ -5013,7 +5018,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B198">
         <v>57</v>
@@ -5021,7 +5026,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B199">
         <v>57</v>
@@ -5029,7 +5034,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B200">
         <v>57</v>
@@ -5037,7 +5042,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B201">
         <v>57</v>
@@ -5045,7 +5050,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B202">
         <v>57</v>
@@ -5053,7 +5058,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B203">
         <v>55</v>
@@ -5061,7 +5066,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B204">
         <v>54</v>
@@ -5069,7 +5074,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B205">
         <v>53</v>
@@ -5077,7 +5082,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B206">
         <v>53</v>
@@ -5085,7 +5090,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B207">
         <v>53</v>
@@ -5093,7 +5098,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B208">
         <v>52</v>
@@ -5101,7 +5106,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B209">
         <v>52</v>
@@ -5109,7 +5114,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B210">
         <v>52</v>
@@ -5117,7 +5122,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B211">
         <v>52</v>
@@ -5125,7 +5130,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B212">
         <v>51</v>
@@ -5133,7 +5138,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B213">
         <v>51</v>
@@ -5141,7 +5146,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B214">
         <v>50</v>
@@ -5149,7 +5154,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B215">
         <v>50</v>
@@ -5157,7 +5162,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B216">
         <v>49.9</v>
@@ -5165,7 +5170,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B217">
         <v>48</v>
@@ -5173,7 +5178,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B218">
         <v>48</v>
@@ -5181,7 +5186,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B219">
         <v>48</v>
@@ -5189,7 +5194,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B220">
         <v>46</v>
@@ -5197,7 +5202,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B221">
         <v>46</v>
@@ -5205,7 +5210,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B222">
         <v>45</v>
@@ -5213,7 +5218,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B223">
         <v>44.9</v>
@@ -5221,7 +5226,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B224">
         <v>44</v>
@@ -5229,7 +5234,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B225">
         <v>44</v>
@@ -5237,7 +5242,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B226">
         <v>44</v>
@@ -5245,7 +5250,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B227">
         <v>43</v>
@@ -5253,7 +5258,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B228">
         <v>43</v>
@@ -5261,7 +5266,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B229">
         <v>43</v>
@@ -5269,7 +5274,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B230">
         <v>43</v>
@@ -5277,7 +5282,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B231">
         <v>43</v>
@@ -5285,7 +5290,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B232">
         <v>42</v>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B233">
         <v>42</v>
@@ -5301,7 +5306,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B234">
         <v>42</v>
@@ -5309,7 +5314,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B235">
         <v>42</v>
@@ -5317,7 +5322,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B236">
         <v>41</v>
@@ -5325,7 +5330,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B237">
         <v>41</v>
@@ -5333,7 +5338,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B238">
         <v>40</v>
@@ -5341,7 +5346,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B239">
         <v>40</v>
@@ -5349,7 +5354,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B240">
         <v>40</v>
@@ -5357,7 +5362,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B241">
         <v>40</v>
@@ -5365,7 +5370,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B242">
         <v>39</v>
@@ -5373,7 +5378,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B243">
         <v>39</v>
@@ -5381,7 +5386,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B244">
         <v>39</v>
@@ -5389,7 +5394,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B245">
         <v>38</v>
@@ -5397,7 +5402,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B246">
         <v>38</v>
@@ -5405,7 +5410,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B247">
         <v>38</v>
@@ -5413,7 +5418,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B248">
         <v>37</v>
@@ -5421,7 +5426,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B249">
         <v>37</v>
@@ -5429,7 +5434,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B250">
         <v>36</v>
@@ -5437,7 +5442,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B251">
         <v>36</v>
@@ -5445,7 +5450,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B252">
         <v>36</v>
@@ -5453,7 +5458,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B253">
         <v>35</v>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B254">
         <v>35</v>
@@ -5469,7 +5474,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B255">
         <v>35</v>
@@ -5477,7 +5482,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B256">
         <v>34</v>
@@ -5485,7 +5490,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B257">
         <v>34</v>
@@ -5493,7 +5498,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B258">
         <v>34</v>
@@ -5501,7 +5506,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B259">
         <v>34</v>
@@ -5509,7 +5514,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B260">
         <v>33</v>
@@ -5517,7 +5522,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B261">
         <v>33</v>
@@ -5525,7 +5530,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B262">
         <v>33</v>
@@ -5533,7 +5538,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B263">
         <v>32</v>
@@ -5541,7 +5546,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B264">
         <v>32</v>
@@ -5549,7 +5554,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B265">
         <v>31</v>
@@ -5557,7 +5562,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B266">
         <v>31</v>
@@ -5565,7 +5570,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B267">
         <v>31</v>
@@ -5573,7 +5578,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B268">
         <v>30</v>
@@ -5581,7 +5586,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B269">
         <v>30</v>
@@ -5589,7 +5594,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B270">
         <v>29.8</v>
@@ -5597,7 +5602,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B271">
         <v>28.9</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B272">
         <v>28.8</v>
@@ -5613,7 +5618,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B273">
         <v>28.5</v>
@@ -5621,7 +5626,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B274">
         <v>28.5</v>
@@ -5629,7 +5634,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B275">
         <v>28.5</v>
@@ -5637,7 +5642,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B276">
         <v>27.7</v>
@@ -5645,7 +5650,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B277">
         <v>27.3</v>
@@ -5653,7 +5658,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B278">
         <v>27.2</v>
@@ -5661,7 +5666,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B279">
         <v>27</v>
@@ -5669,7 +5674,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B280">
         <v>26.6</v>
@@ -5677,7 +5682,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B281">
         <v>26.4</v>
@@ -5685,7 +5690,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B282">
         <v>26.3</v>
@@ -5693,7 +5698,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B283">
         <v>26.3</v>
@@ -5701,7 +5706,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B284">
         <v>25.9</v>
@@ -5709,7 +5714,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B285">
         <v>24.8</v>
@@ -5717,7 +5722,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B286">
         <v>23.1</v>
@@ -5725,7 +5730,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B287">
         <v>22.9</v>
@@ -5733,7 +5738,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B288">
         <v>22.8</v>
@@ -5741,7 +5746,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B289">
         <v>22.8</v>
@@ -5749,7 +5754,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B290">
         <v>22.8</v>
@@ -5757,7 +5762,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B291">
         <v>22.8</v>
@@ -5765,7 +5770,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B292">
         <v>22.5</v>
@@ -5773,7 +5778,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B293">
         <v>21.9</v>
@@ -5781,7 +5786,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B294">
         <v>21.7</v>
@@ -5789,7 +5794,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B295">
         <v>20.8</v>
@@ -5797,7 +5802,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B296">
         <v>20.6</v>
@@ -5805,7 +5810,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B297">
         <v>20.6</v>
@@ -5813,7 +5818,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B298">
         <v>20</v>
@@ -5821,7 +5826,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B299">
         <v>19.899999999999999</v>
@@ -5829,7 +5834,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B300">
         <v>19.8</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B301">
         <v>19.7</v>
@@ -5845,7 +5850,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B302">
         <v>19.600000000000001</v>
@@ -5853,7 +5858,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B303">
         <v>19.5</v>
@@ -5861,7 +5866,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B304">
         <v>19.100000000000001</v>
@@ -5869,7 +5874,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B305">
         <v>19</v>
@@ -5877,7 +5882,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B306">
         <v>19</v>
@@ -5885,7 +5890,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B307">
         <v>18.899999999999999</v>
@@ -5893,7 +5898,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B308">
         <v>18.8</v>
@@ -5901,7 +5906,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B309">
         <v>18.7</v>
@@ -5909,7 +5914,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B310">
         <v>18.600000000000001</v>
@@ -5917,7 +5922,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B311">
         <v>18.5</v>
@@ -5925,7 +5930,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B312">
         <v>18.399999999999999</v>
@@ -5933,7 +5938,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B313">
         <v>18.2</v>
@@ -5941,7 +5946,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B314">
         <v>17.899999999999999</v>
@@ -5949,7 +5954,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B315">
         <v>17.7</v>
@@ -5957,7 +5962,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B316">
         <v>17.7</v>
@@ -5965,7 +5970,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B317">
         <v>17.7</v>
@@ -5973,7 +5978,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B318">
         <v>17.600000000000001</v>
@@ -5981,7 +5986,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B319">
         <v>17.3</v>
@@ -5989,7 +5994,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B320">
         <v>17.2</v>
@@ -5997,7 +6002,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B321">
         <v>17.100000000000001</v>
@@ -6005,7 +6010,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B322">
         <v>16.8</v>
@@ -6013,7 +6018,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B323">
         <v>16.600000000000001</v>
@@ -6021,7 +6026,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B324">
         <v>16.5</v>
@@ -6029,7 +6034,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B325">
         <v>16.5</v>
@@ -6037,7 +6042,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B326">
         <v>16.399999999999999</v>
@@ -6045,7 +6050,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B327">
         <v>16.2</v>
@@ -6053,7 +6058,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B328">
         <v>16.2</v>
@@ -6061,7 +6066,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B329">
         <v>15.9</v>
@@ -6069,7 +6074,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B330">
         <v>15.9</v>
@@ -6077,7 +6082,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B331">
         <v>15.6</v>
@@ -6085,7 +6090,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B332">
         <v>15.4</v>
@@ -6093,7 +6098,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B333">
         <v>15</v>
@@ -6101,7 +6106,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B334">
         <v>14.8</v>
@@ -6109,7 +6114,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B335">
         <v>14.7</v>
@@ -6117,7 +6122,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B336">
         <v>14.6</v>
@@ -6125,7 +6130,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B337">
         <v>14.6</v>
@@ -6133,7 +6138,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B338">
         <v>14.6</v>
@@ -6141,7 +6146,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B339">
         <v>14.5</v>
@@ -6149,7 +6154,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B340">
         <v>14.5</v>
@@ -6157,7 +6162,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B341">
         <v>14.4</v>
@@ -6165,7 +6170,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B342">
         <v>14.4</v>
@@ -6173,7 +6178,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B343">
         <v>14.3</v>
@@ -6181,7 +6186,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B344">
         <v>14</v>
@@ -6189,7 +6194,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B345">
         <v>14</v>
@@ -6197,7 +6202,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B346">
         <v>13.9</v>
@@ -6205,7 +6210,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B347">
         <v>13.9</v>
@@ -6213,7 +6218,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B348">
         <v>13.8</v>
@@ -6221,7 +6226,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B349">
         <v>13.6</v>
@@ -6229,7 +6234,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B350">
         <v>13.6</v>
@@ -6237,7 +6242,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B351">
         <v>13.5</v>
@@ -6245,7 +6250,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B352">
         <v>13.5</v>
@@ -6253,7 +6258,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B353">
         <v>13.4</v>
@@ -6261,7 +6266,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B354">
         <v>13.4</v>
@@ -6269,7 +6274,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B355">
         <v>13.3</v>
@@ -6277,7 +6282,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B356">
         <v>13</v>
@@ -6285,7 +6290,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B357">
         <v>12.8</v>
@@ -6293,7 +6298,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B358">
         <v>12.8</v>
@@ -6301,7 +6306,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B359">
         <v>12.4</v>
@@ -6309,7 +6314,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B360">
         <v>12.4</v>
@@ -6317,7 +6322,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B361">
         <v>12.3</v>
@@ -6325,7 +6330,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B362">
         <v>12.2</v>
@@ -6333,7 +6338,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B363">
         <v>12.1</v>
@@ -6341,7 +6346,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B364">
         <v>12.1</v>
@@ -6349,7 +6354,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B365">
         <v>12</v>
@@ -6357,7 +6362,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B366">
         <v>11.9</v>
@@ -6365,7 +6370,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B367">
         <v>11.8</v>
@@ -6373,7 +6378,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B368">
         <v>11.7</v>
@@ -6381,7 +6386,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B369">
         <v>11.5</v>
@@ -6389,7 +6394,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B370">
         <v>11.2</v>
@@ -6397,7 +6402,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B371">
         <v>11.2</v>
@@ -6405,7 +6410,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B372">
         <v>11.1</v>
@@ -6413,7 +6418,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B373">
         <v>11</v>
@@ -6421,7 +6426,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B374">
         <v>10.9</v>
@@ -6429,7 +6434,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B375">
         <v>10.9</v>
@@ -6437,7 +6442,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B376">
         <v>10.7</v>
@@ -6445,7 +6450,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B377">
         <v>10.5</v>
@@ -6453,7 +6458,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B378">
         <v>10.199999999999999</v>
@@ -6461,7 +6466,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B379">
         <v>10.1</v>
@@ -6469,7 +6474,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B380">
         <v>10.1</v>
@@ -6477,7 +6482,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B381">
         <v>10.1</v>
@@ -6485,7 +6490,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B382">
         <v>10</v>
@@ -6493,7 +6498,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B383">
         <v>10</v>
@@ -6501,7 +6506,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B384">
         <v>9.9</v>
@@ -6509,7 +6514,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B385">
         <v>9.8000000000000007</v>
@@ -6517,7 +6522,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B386">
         <v>9.8000000000000007</v>
@@ -6525,7 +6530,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B387">
         <v>9.6</v>
@@ -6533,7 +6538,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B388">
         <v>9.6</v>
@@ -6541,7 +6546,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B389">
         <v>9.5</v>
@@ -6549,7 +6554,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B390">
         <v>9.5</v>
@@ -6557,7 +6562,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B391">
         <v>9.3000000000000007</v>
@@ -6565,7 +6570,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B392">
         <v>9.1999999999999993</v>
@@ -6573,7 +6578,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B393">
         <v>9.1</v>
@@ -6581,7 +6586,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -6589,7 +6594,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B395">
         <v>9</v>
@@ -6597,7 +6602,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B396">
         <v>8.9</v>
@@ -6605,7 +6610,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B397">
         <v>8.9</v>
@@ -6613,7 +6618,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B398">
         <v>8.9</v>
@@ -6621,7 +6626,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B399">
         <v>8.6999999999999993</v>
@@ -6629,7 +6634,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B400">
         <v>8.6999999999999993</v>
@@ -6637,7 +6642,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B401">
         <v>8.6</v>
@@ -6645,7 +6650,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B402">
         <v>8.5</v>
@@ -6653,7 +6658,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B403">
         <v>8.5</v>
@@ -6661,7 +6666,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B404">
         <v>8.4</v>
@@ -6669,7 +6674,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B405">
         <v>8.4</v>
@@ -6677,7 +6682,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B406">
         <v>8</v>
@@ -6685,7 +6690,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B407">
         <v>8</v>
@@ -6693,7 +6698,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B408">
         <v>5</v>
@@ -6701,7 +6706,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B409">
         <v>5</v>
@@ -6709,7 +6714,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B410">
         <v>5</v>
@@ -6717,7 +6722,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B411">
         <v>5</v>
@@ -6725,7 +6730,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B412">
         <v>5</v>
@@ -6733,7 +6738,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B413">
         <v>5</v>
@@ -6741,7 +6746,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B414">
         <v>5</v>
@@ -6749,7 +6754,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B415">
         <v>5</v>
@@ -6757,7 +6762,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B416">
         <v>5</v>
@@ -6765,7 +6770,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B417">
         <v>5</v>
@@ -6773,7 +6778,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B418">
         <v>5</v>
@@ -6781,7 +6786,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B419">
         <v>5</v>
@@ -6789,7 +6794,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B420">
         <v>5</v>
@@ -6797,7 +6802,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B421">
         <v>5</v>
@@ -6805,7 +6810,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B422">
         <v>5</v>
@@ -6813,7 +6818,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B423">
         <v>5</v>
@@ -6821,7 +6826,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B424">
         <v>5</v>
@@ -6829,7 +6834,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B425">
         <v>5</v>
@@ -6837,7 +6842,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B426">
         <v>5</v>
@@ -6845,7 +6850,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B427">
         <v>5</v>
@@ -6853,7 +6858,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B428">
         <v>5</v>
@@ -6861,7 +6866,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B429">
         <v>5</v>
@@ -6869,7 +6874,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B430">
         <v>5</v>
@@ -6877,7 +6882,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B431">
         <v>5</v>
@@ -6885,7 +6890,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B432">
         <v>5</v>
@@ -6893,7 +6898,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B433">
         <v>5</v>
@@ -6901,7 +6906,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B434">
         <v>5</v>
@@ -6909,7 +6914,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B435">
         <v>5</v>
@@ -6917,7 +6922,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B436">
         <v>5</v>
@@ -6925,7 +6930,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B437">
         <v>5</v>
@@ -6933,7 +6938,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B438">
         <v>5</v>
@@ -6941,7 +6946,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B439">
         <v>5</v>
@@ -6949,7 +6954,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B440">
         <v>5</v>
@@ -6957,7 +6962,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B441">
         <v>5</v>
@@ -6965,7 +6970,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B442">
         <v>5</v>
@@ -6973,7 +6978,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B443">
         <v>5</v>
@@ -6981,7 +6986,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B444">
         <v>5</v>
@@ -6989,7 +6994,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B445">
         <v>5</v>
@@ -6997,7 +7002,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B446">
         <v>5</v>
@@ -7005,7 +7010,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B447">
         <v>5</v>
@@ -7013,7 +7018,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B448">
         <v>5</v>
@@ -7021,7 +7026,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B449">
         <v>5</v>
@@ -7029,7 +7034,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B450">
         <v>5</v>
@@ -7037,7 +7042,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B451">
         <v>5</v>
@@ -7045,7 +7050,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B452">
         <v>5</v>
@@ -7053,7 +7058,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B453">
         <v>5</v>
@@ -7061,7 +7066,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B454">
         <v>5</v>
@@ -7069,7 +7074,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B455">
         <v>5</v>
@@ -7077,7 +7082,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B456">
         <v>5</v>
@@ -7085,7 +7090,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B457">
         <v>5</v>
@@ -7093,7 +7098,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B458">
         <v>5</v>
@@ -7101,7 +7106,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B459">
         <v>5</v>
@@ -7109,7 +7114,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B460">
         <v>5</v>
@@ -7117,7 +7122,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B461">
         <v>5</v>
@@ -7125,7 +7130,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -7133,7 +7138,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B463">
         <v>5</v>
@@ -7141,7 +7146,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B464">
         <v>5</v>
@@ -7149,7 +7154,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B465">
         <v>5</v>
@@ -7157,7 +7162,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B466">
         <v>5</v>
@@ -7165,7 +7170,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B467">
         <v>5</v>
@@ -7173,7 +7178,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B468">
         <v>5</v>
@@ -7181,7 +7186,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B469">
         <v>5</v>
@@ -7189,7 +7194,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B470">
         <v>5</v>
@@ -7197,7 +7202,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B471">
         <v>5</v>
@@ -7205,7 +7210,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B472">
         <v>5</v>
@@ -7213,7 +7218,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B473">
         <v>5</v>
@@ -7221,7 +7226,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B474">
         <v>5</v>
@@ -7229,7 +7234,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B475">
         <v>5</v>
@@ -7237,7 +7242,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B476">
         <v>5</v>
@@ -7245,7 +7250,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B477">
         <v>5</v>
@@ -7253,7 +7258,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B478">
         <v>5</v>
@@ -7261,7 +7266,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B479">
         <v>5</v>
@@ -7269,7 +7274,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B480">
         <v>5</v>
@@ -7277,7 +7282,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B481">
         <v>5</v>
@@ -7285,7 +7290,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B482">
         <v>5</v>
@@ -7293,7 +7298,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B483">
         <v>5</v>
@@ -7301,7 +7306,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B484">
         <v>5</v>
@@ -7309,7 +7314,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B485">
         <v>5</v>
@@ -7317,7 +7322,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B486">
         <v>5</v>
@@ -7325,7 +7330,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B487">
         <v>5</v>
@@ -7333,7 +7338,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B488">
         <v>5</v>
@@ -7341,7 +7346,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B489">
         <v>5</v>
@@ -7349,7 +7354,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B490">
         <v>5</v>
@@ -7357,7 +7362,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B491">
         <v>5</v>
@@ -7365,7 +7370,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B492">
         <v>5</v>
@@ -7373,7 +7378,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B493">
         <v>5</v>
@@ -7381,7 +7386,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B494">
         <v>5</v>
@@ -7389,7 +7394,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B495">
         <v>5</v>
@@ -7397,7 +7402,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B496">
         <v>5</v>
@@ -7405,7 +7410,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B497">
         <v>5</v>
@@ -7413,7 +7418,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B498">
         <v>5</v>
@@ -7421,7 +7426,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B499">
         <v>5</v>
@@ -7429,7 +7434,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B500">
         <v>5</v>
@@ -7437,7 +7442,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B501">
         <v>5</v>
@@ -7445,7 +7450,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B502">
         <v>5</v>
@@ -7453,7 +7458,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B503">
         <v>5</v>
@@ -7461,7 +7466,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B504">
         <v>5</v>
@@ -7469,7 +7474,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B505">
         <v>5</v>
@@ -7477,7 +7482,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B506">
         <v>5</v>
@@ -7485,7 +7490,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B507">
         <v>5</v>
@@ -7493,7 +7498,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B508">
         <v>5</v>
@@ -7501,7 +7506,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B509">
         <v>5</v>
@@ -7509,7 +7514,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B510">
         <v>5</v>
@@ -7517,7 +7522,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B511">
         <v>5</v>
@@ -7525,7 +7530,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B512">
         <v>5</v>
@@ -7533,7 +7538,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B513">
         <v>5</v>
@@ -7541,7 +7546,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B514">
         <v>5</v>
@@ -7549,7 +7554,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B515">
         <v>5</v>
@@ -7557,7 +7562,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B516">
         <v>5</v>
@@ -7565,7 +7570,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B517">
         <v>5</v>
@@ -7573,7 +7578,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B518">
         <v>5</v>
@@ -7581,7 +7586,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B519">
         <v>5</v>
@@ -7589,7 +7594,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B520">
         <v>5</v>
@@ -7597,7 +7602,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B521">
         <v>5</v>
@@ -7605,7 +7610,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B522">
         <v>5</v>
@@ -7613,7 +7618,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B523">
         <v>5</v>
@@ -7621,7 +7626,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B524">
         <v>5</v>
@@ -7629,7 +7634,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B525">
         <v>5</v>
@@ -7637,7 +7642,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B526">
         <v>5</v>
@@ -7645,7 +7650,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B527">
         <v>5</v>
@@ -7653,7 +7658,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B528">
         <v>5</v>
@@ -7661,7 +7666,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B529">
         <v>5</v>
@@ -7669,7 +7674,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B530">
         <v>5</v>
@@ -7677,7 +7682,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B531">
         <v>5</v>
@@ -7685,7 +7690,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B532">
         <v>5</v>
@@ -7693,7 +7698,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B533">
         <v>5</v>
@@ -7701,7 +7706,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B534">
         <v>5</v>
@@ -7709,7 +7714,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B535">
         <v>5</v>
@@ -7717,7 +7722,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B536">
         <v>5</v>
@@ -7725,7 +7730,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B537">
         <v>5</v>
@@ -7733,7 +7738,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B538">
         <v>5</v>
@@ -7741,7 +7746,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B539">
         <v>5</v>
@@ -7749,7 +7754,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B540">
         <v>5</v>
@@ -7757,7 +7762,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B541">
         <v>5</v>
@@ -7765,7 +7770,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B542">
         <v>5</v>
@@ -7773,7 +7778,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B543">
         <v>5</v>
@@ -7781,7 +7786,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B544">
         <v>5</v>
@@ -7789,7 +7794,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B545">
         <v>5</v>
@@ -7797,7 +7802,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B546">
         <v>5</v>
@@ -7805,7 +7810,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B547">
         <v>5</v>
@@ -7813,7 +7818,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B548">
         <v>5</v>
@@ -7821,7 +7826,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B549">
         <v>5</v>
@@ -7829,7 +7834,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B550">
         <v>5</v>
@@ -7837,7 +7842,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B551">
         <v>5</v>
@@ -7845,7 +7850,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B552">
         <v>5</v>
@@ -7853,7 +7858,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B553">
         <v>5</v>
@@ -7861,7 +7866,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B554">
         <v>5</v>
@@ -7869,7 +7874,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B555">
         <v>5</v>
@@ -7877,7 +7882,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B556">
         <v>5</v>
@@ -7885,7 +7890,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B557">
         <v>5</v>
@@ -7893,7 +7898,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B558">
         <v>5</v>
@@ -7901,7 +7906,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B559">
         <v>5</v>
@@ -7909,7 +7914,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B560">
         <v>5</v>
@@ -7917,7 +7922,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B561">
         <v>5</v>
@@ -7925,7 +7930,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -7933,7 +7938,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -7941,7 +7946,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B564">
         <v>5</v>
@@ -7949,7 +7954,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B565">
         <v>5</v>
@@ -7957,7 +7962,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B566">
         <v>5</v>
@@ -7965,7 +7970,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B567">
         <v>5</v>
@@ -7973,7 +7978,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B568">
         <v>5</v>
@@ -7981,7 +7986,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B569">
         <v>5</v>
@@ -7989,7 +7994,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B570">
         <v>5</v>
@@ -7997,7 +8002,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B571">
         <v>5</v>
@@ -8005,7 +8010,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B572">
         <v>5</v>
@@ -8013,7 +8018,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B573">
         <v>5</v>
@@ -8021,7 +8026,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B574">
         <v>5</v>
@@ -8029,7 +8034,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B575">
         <v>5</v>
@@ -8037,7 +8042,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B576">
         <v>5</v>
@@ -8045,7 +8050,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B577">
         <v>5</v>
@@ -8053,7 +8058,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B578">
         <v>5</v>
@@ -8061,7 +8066,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B579">
         <v>5</v>
@@ -8069,7 +8074,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B580">
         <v>5</v>
@@ -8077,7 +8082,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B581">
         <v>5</v>
@@ -8085,7 +8090,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B582">
         <v>5</v>
@@ -8093,7 +8098,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B583">
         <v>5</v>
@@ -8101,7 +8106,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B584">
         <v>5</v>
@@ -8109,7 +8114,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B585">
         <v>5</v>
@@ -8117,7 +8122,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B586">
         <v>5</v>
@@ -8125,7 +8130,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B587">
         <v>5</v>
@@ -8133,7 +8138,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B588">
         <v>5</v>
@@ -8141,7 +8146,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B589">
         <v>5</v>
@@ -8149,7 +8154,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B590">
         <v>5</v>
@@ -8157,7 +8162,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B591">
         <v>5</v>
@@ -8165,7 +8170,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B592">
         <v>5</v>
@@ -8173,7 +8178,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B593">
         <v>5</v>
@@ -8181,7 +8186,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B594">
         <v>5</v>
@@ -8189,7 +8194,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B595">
         <v>5</v>
@@ -8197,7 +8202,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B596">
         <v>5</v>
@@ -8205,7 +8210,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B597">
         <v>5</v>
@@ -8213,7 +8218,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B598">
         <v>5</v>
@@ -8221,7 +8226,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B599">
         <v>5</v>
@@ -8229,7 +8234,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B600">
         <v>5</v>
@@ -8237,7 +8242,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B601">
         <v>5</v>
@@ -8245,7 +8250,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B602">
         <v>5</v>
@@ -8253,7 +8258,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B603">
         <v>5</v>
@@ -8261,7 +8266,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B604">
         <v>5</v>
@@ -8269,7 +8274,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B605">
         <v>5</v>
@@ -8277,7 +8282,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B606">
         <v>5</v>
@@ -8285,7 +8290,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B607">
         <v>5</v>
@@ -8293,7 +8298,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B608">
         <v>5</v>
@@ -8301,7 +8306,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B609">
         <v>5</v>
@@ -8309,7 +8314,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B610">
         <v>5</v>
@@ -8317,7 +8322,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B611">
         <v>5</v>
@@ -8325,7 +8330,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B612">
         <v>5</v>
@@ -8333,7 +8338,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B613">
         <v>5</v>
@@ -8341,7 +8346,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B614">
         <v>5</v>
@@ -8349,7 +8354,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B615">
         <v>5</v>
@@ -8357,7 +8362,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B616">
         <v>5</v>
@@ -8365,7 +8370,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B617">
         <v>5</v>
@@ -8373,7 +8378,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B618">
         <v>5</v>
@@ -8381,7 +8386,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B619">
         <v>5</v>
@@ -8389,7 +8394,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B620">
         <v>5</v>
@@ -8397,7 +8402,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B621">
         <v>5</v>
@@ -8405,7 +8410,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B622">
         <v>5</v>
@@ -8413,7 +8418,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B623">
         <v>5</v>
@@ -8421,7 +8426,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B624">
         <v>5</v>
@@ -8429,7 +8434,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B625">
         <v>5</v>
@@ -8437,7 +8442,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B626">
         <v>5</v>
@@ -8445,7 +8450,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B627">
         <v>5</v>
@@ -8453,7 +8458,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B628">
         <v>5</v>
@@ -8461,7 +8466,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B629">
         <v>5</v>
@@ -8469,7 +8474,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B630">
         <v>5</v>
@@ -8477,7 +8482,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B631">
         <v>5</v>
@@ -8485,7 +8490,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B632">
         <v>5</v>
@@ -8493,7 +8498,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B633">
         <v>5</v>
@@ -8501,7 +8506,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B634">
         <v>5</v>
@@ -8509,7 +8514,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B635">
         <v>5</v>
@@ -8517,7 +8522,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B636">
         <v>5</v>
@@ -8525,7 +8530,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B637">
         <v>5</v>
@@ -8533,7 +8538,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B638">
         <v>5</v>
@@ -8541,7 +8546,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B639">
         <v>5</v>
@@ -8549,7 +8554,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B640">
         <v>5</v>
@@ -8557,7 +8562,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B641">
         <v>5</v>
@@ -8565,7 +8570,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B642">
         <v>5</v>
@@ -8573,7 +8578,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B643">
         <v>5</v>
@@ -8581,7 +8586,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B644">
         <v>5</v>
@@ -8589,7 +8594,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B645">
         <v>5</v>
@@ -8597,7 +8602,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B646">
         <v>5</v>
@@ -8605,7 +8610,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B647">
         <v>5</v>
@@ -8613,7 +8618,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B648">
         <v>5</v>
@@ -8621,7 +8626,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B649">
         <v>5</v>
@@ -8629,7 +8634,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B650">
         <v>5</v>
@@ -8637,7 +8642,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B651">
         <v>5</v>
@@ -8645,7 +8650,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B652">
         <v>5</v>
@@ -8653,7 +8658,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B653">
         <v>5</v>
@@ -8661,7 +8666,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B654">
         <v>5</v>
@@ -8669,7 +8674,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B655">
         <v>5</v>
@@ -8677,7 +8682,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B656">
         <v>5</v>
@@ -8685,7 +8690,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B657">
         <v>5</v>
@@ -8693,7 +8698,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B658">
         <v>5</v>
@@ -8701,7 +8706,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B659">
         <v>5</v>
@@ -8709,7 +8714,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B660">
         <v>5</v>
@@ -8717,7 +8722,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B661">
         <v>5</v>
@@ -8725,7 +8730,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B662">
         <v>5</v>
@@ -8733,7 +8738,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B663">
         <v>5</v>
@@ -8741,7 +8746,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B664">
         <v>5</v>
@@ -8749,7 +8754,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B665">
         <v>5</v>
@@ -8757,7 +8762,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B666">
         <v>5</v>
@@ -8765,7 +8770,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B667">
         <v>5</v>
@@ -8773,7 +8778,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B668">
         <v>5</v>
@@ -8781,7 +8786,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B669">
         <v>5</v>
@@ -8789,7 +8794,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B670">
         <v>5</v>
@@ -8797,7 +8802,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B671">
         <v>5</v>
@@ -8805,7 +8810,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B672">
         <v>5</v>
@@ -8813,7 +8818,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B673">
         <v>5</v>
@@ -8821,7 +8826,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B674">
         <v>5</v>
@@ -8829,7 +8834,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B675">
         <v>5</v>
@@ -8837,7 +8842,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B676">
         <v>5</v>
@@ -8845,7 +8850,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B677">
         <v>5</v>
@@ -8853,7 +8858,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B678">
         <v>5</v>
@@ -8861,7 +8866,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B679">
         <v>5</v>
@@ -8869,7 +8874,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B680">
         <v>5</v>
@@ -8877,7 +8882,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B681">
         <v>5</v>
@@ -8885,7 +8890,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B682">
         <v>5</v>
@@ -8893,7 +8898,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B683">
         <v>5</v>
@@ -8901,7 +8906,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B684">
         <v>5</v>
@@ -8909,7 +8914,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B685">
         <v>5</v>
@@ -8917,7 +8922,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B686">
         <v>5</v>
@@ -8925,7 +8930,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B687">
         <v>5</v>
@@ -8933,7 +8938,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B688">
         <v>5</v>
@@ -8941,7 +8946,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B689">
         <v>5</v>
@@ -8949,7 +8954,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B690">
         <v>5</v>
@@ -8957,7 +8962,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B691">
         <v>5</v>
@@ -8965,7 +8970,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B692">
         <v>5</v>
@@ -8973,7 +8978,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B693">
         <v>5</v>
@@ -8981,7 +8986,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B694">
         <v>5</v>
@@ -8989,7 +8994,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B695">
         <v>5</v>
@@ -8997,7 +9002,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B696">
         <v>5</v>
@@ -9005,7 +9010,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B697">
         <v>5</v>
@@ -9013,7 +9018,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B698">
         <v>5</v>
@@ -9021,7 +9026,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B699">
         <v>5</v>
@@ -9029,7 +9034,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B700">
         <v>5</v>
@@ -9037,7 +9042,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B701">
         <v>5</v>
@@ -9045,7 +9050,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B702">
         <v>5</v>
@@ -9053,7 +9058,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B703">
         <v>5</v>
@@ -9061,7 +9066,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B704">
         <v>5</v>
@@ -9069,7 +9074,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B705">
         <v>5</v>
@@ -9077,7 +9082,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B706">
         <v>5</v>
@@ -9085,7 +9090,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B707">
         <v>5</v>
@@ -9093,7 +9098,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B708">
         <v>5</v>
@@ -9101,7 +9106,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B709">
         <v>5</v>
@@ -9109,7 +9114,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B710">
         <v>5</v>
@@ -9117,7 +9122,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B711">
         <v>5</v>
@@ -9125,7 +9130,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B712">
         <v>5</v>
@@ -9133,7 +9138,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B713">
         <v>5</v>
@@ -9141,7 +9146,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B714">
         <v>5</v>
@@ -9149,7 +9154,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B715">
         <v>5</v>
@@ -9157,7 +9162,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B716">
         <v>5</v>
@@ -9165,7 +9170,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B717">
         <v>5</v>
@@ -9173,7 +9178,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B718">
         <v>5</v>
@@ -9181,7 +9186,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B719">
         <v>5</v>
@@ -9189,7 +9194,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B720">
         <v>5</v>
@@ -9197,7 +9202,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B721">
         <v>5</v>
@@ -9205,7 +9210,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B722">
         <v>5</v>
@@ -9213,7 +9218,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B723">
         <v>5</v>
@@ -9221,7 +9226,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B724">
         <v>5</v>
@@ -9229,7 +9234,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B725">
         <v>5</v>
@@ -9237,7 +9242,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B726">
         <v>5</v>
@@ -9245,7 +9250,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B727">
         <v>5</v>
@@ -9253,7 +9258,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B728">
         <v>5</v>
@@ -9261,7 +9266,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B729">
         <v>5</v>
@@ -9269,7 +9274,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B730">
         <v>5</v>
@@ -9277,7 +9282,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B731">
         <v>5</v>
@@ -9285,7 +9290,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B732">
         <v>5</v>
@@ -9293,7 +9298,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B733">
         <v>5</v>
@@ -9301,7 +9306,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B734">
         <v>5</v>
@@ -9309,7 +9314,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B735">
         <v>5</v>
@@ -9317,7 +9322,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B736">
         <v>5</v>
@@ -9325,7 +9330,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B737">
         <v>5</v>
@@ -9333,7 +9338,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B738">
         <v>5</v>
@@ -9341,7 +9346,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B739">
         <v>5</v>
@@ -9349,7 +9354,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B740">
         <v>5</v>
@@ -9357,7 +9362,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B741">
         <v>5</v>
@@ -9365,7 +9370,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B742">
         <v>5</v>
@@ -9373,7 +9378,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B743">
         <v>5</v>
@@ -9381,7 +9386,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B744">
         <v>5</v>
@@ -9389,7 +9394,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B745">
         <v>5</v>
@@ -9397,7 +9402,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B746">
         <v>5</v>
@@ -9405,7 +9410,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B747">
         <v>5</v>
@@ -9413,7 +9418,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B748">
         <v>5</v>
@@ -9421,7 +9426,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B749">
         <v>5</v>
@@ -9429,7 +9434,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B750">
         <v>5</v>
@@ -9437,7 +9442,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B751">
         <v>5</v>
@@ -9445,7 +9450,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B752">
         <v>5</v>
@@ -9453,7 +9458,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B753">
         <v>5</v>
@@ -9461,7 +9466,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B754">
         <v>5</v>
@@ -9469,7 +9474,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B755">
         <v>5</v>
@@ -9477,7 +9482,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B756">
         <v>5</v>
@@ -9485,7 +9490,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B757">
         <v>5</v>
@@ -9493,7 +9498,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B758">
         <v>5</v>
@@ -9501,7 +9506,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B759">
         <v>5</v>
@@ -9509,7 +9514,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B760">
         <v>5</v>
@@ -9517,7 +9522,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B761">
         <v>5</v>
@@ -9525,7 +9530,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B762">
         <v>5</v>
@@ -9533,7 +9538,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B763">
         <v>5</v>
@@ -9541,7 +9546,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B764">
         <v>5</v>
@@ -9549,7 +9554,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B765">
         <v>5</v>
@@ -9557,7 +9562,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B766">
         <v>5</v>
@@ -9565,7 +9570,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B767">
         <v>5</v>
@@ -9573,7 +9578,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B768">
         <v>5</v>
@@ -9581,7 +9586,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B769">
         <v>5</v>
@@ -9589,7 +9594,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B770">
         <v>5</v>
@@ -9597,7 +9602,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B771">
         <v>5</v>
@@ -9605,7 +9610,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B772">
         <v>5</v>
@@ -9613,7 +9618,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B773">
         <v>5</v>
@@ -9621,7 +9626,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B774">
         <v>5</v>
@@ -9629,7 +9634,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B775">
         <v>5</v>
@@ -9637,7 +9642,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B776">
         <v>5</v>
@@ -9645,7 +9650,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B777">
         <v>5</v>
@@ -9653,7 +9658,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B778">
         <v>5</v>
@@ -9661,7 +9666,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B779">
         <v>5</v>
@@ -9669,7 +9674,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B780">
         <v>5</v>
@@ -9677,7 +9682,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B781">
         <v>5</v>
@@ -9685,7 +9690,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B782">
         <v>5</v>
@@ -9693,7 +9698,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B783">
         <v>5</v>
@@ -9701,7 +9706,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B784">
         <v>5</v>
@@ -9709,7 +9714,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B785">
         <v>5</v>
@@ -9717,7 +9722,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B786">
         <v>5</v>
@@ -9725,7 +9730,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B787">
         <v>5</v>
@@ -9733,7 +9738,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B788">
         <v>5</v>
@@ -9741,7 +9746,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B789">
         <v>5</v>
@@ -9749,7 +9754,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B790">
         <v>5</v>
@@ -9757,7 +9762,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B791">
         <v>5</v>
@@ -9765,7 +9770,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B792">
         <v>5</v>
@@ -9773,7 +9778,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B793">
         <v>5</v>
@@ -9781,7 +9786,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B794">
         <v>5</v>
@@ -9789,7 +9794,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B795">
         <v>5</v>
@@ -9797,7 +9802,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B796">
         <v>5</v>
@@ -9805,7 +9810,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B797">
         <v>5</v>
@@ -9813,7 +9818,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B798">
         <v>5</v>
@@ -9821,7 +9826,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B799">
         <v>5</v>
@@ -9829,7 +9834,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B800">
         <v>5</v>
@@ -9837,7 +9842,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B801">
         <v>5</v>
@@ -9845,7 +9850,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B802">
         <v>5</v>
@@ -9853,7 +9858,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B803">
         <v>5</v>
@@ -9861,7 +9866,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B804">
         <v>5</v>
@@ -9869,7 +9874,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B805">
         <v>5</v>
@@ -9877,7 +9882,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B806">
         <v>5</v>
@@ -9885,7 +9890,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B807">
         <v>5</v>
@@ -9893,7 +9898,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B808">
         <v>5</v>
@@ -9901,7 +9906,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B809">
         <v>5</v>
@@ -9909,7 +9914,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B810">
         <v>5</v>
@@ -9917,7 +9922,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B811">
         <v>5</v>
@@ -9925,7 +9930,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B812">
         <v>5</v>
@@ -9933,7 +9938,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B813">
         <v>5</v>
@@ -9941,7 +9946,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B814">
         <v>5</v>
@@ -9949,7 +9954,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B815">
         <v>5</v>
@@ -9957,7 +9962,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B816">
         <v>5</v>
@@ -9965,7 +9970,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B817">
         <v>5</v>
@@ -9973,7 +9978,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B818">
         <v>5</v>
@@ -9981,7 +9986,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B819">
         <v>5</v>
@@ -9989,7 +9994,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B820">
         <v>5</v>
@@ -9997,7 +10002,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B821">
         <v>5</v>
@@ -10005,7 +10010,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B822">
         <v>5</v>
@@ -10013,7 +10018,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B823">
         <v>5</v>
@@ -10021,7 +10026,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B824">
         <v>5</v>
@@ -10029,7 +10034,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B825">
         <v>5</v>
@@ -10037,7 +10042,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B826">
         <v>5</v>
@@ -10045,7 +10050,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B827">
         <v>5</v>
@@ -10053,7 +10058,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B828">
         <v>5</v>
@@ -10061,7 +10066,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B829">
         <v>5</v>
@@ -10069,7 +10074,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B830">
         <v>5</v>
@@ -10077,7 +10082,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B831">
         <v>5</v>
@@ -10085,7 +10090,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B832">
         <v>5</v>
@@ -10093,7 +10098,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B833">
         <v>5</v>
@@ -10101,7 +10106,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B834">
         <v>5</v>
@@ -10109,7 +10114,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B835">
         <v>5</v>
@@ -10117,7 +10122,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B836">
         <v>5</v>
@@ -10125,7 +10130,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B837">
         <v>5</v>
@@ -10133,7 +10138,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B838">
         <v>5</v>
@@ -10141,7 +10146,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B839">
         <v>5</v>
@@ -10149,7 +10154,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B840">
         <v>5</v>
@@ -10157,7 +10162,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B841">
         <v>5</v>
@@ -10165,7 +10170,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B842">
         <v>5</v>
@@ -10173,7 +10178,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B843">
         <v>5</v>
@@ -10181,7 +10186,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B844">
         <v>5</v>
@@ -10189,7 +10194,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B845">
         <v>5</v>
@@ -10197,7 +10202,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B846">
         <v>5</v>
@@ -10205,7 +10210,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B847">
         <v>5</v>
@@ -10213,7 +10218,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B848">
         <v>5</v>
@@ -10221,7 +10226,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B849">
         <v>5</v>
@@ -10229,7 +10234,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B850">
         <v>5</v>
@@ -10237,7 +10242,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B851">
         <v>5</v>
@@ -10245,7 +10250,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A852" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B852">
         <v>5</v>
@@ -10253,7 +10258,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A853" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B853">
         <v>5</v>
@@ -10261,7 +10266,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B854">
         <v>5</v>
@@ -10269,7 +10274,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A855" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B855">
         <v>5</v>
@@ -10277,7 +10282,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B856">
         <v>5</v>
@@ -10285,7 +10290,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B857">
         <v>5</v>
@@ -10293,7 +10298,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B858">
         <v>5</v>
@@ -10301,7 +10306,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B859">
         <v>5</v>
@@ -10309,7 +10314,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B860">
         <v>5</v>
@@ -10317,7 +10322,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B861">
         <v>5</v>
@@ -10325,7 +10330,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B862">
         <v>5</v>
@@ -10333,7 +10338,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B863">
         <v>5</v>
@@ -10341,7 +10346,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B864">
         <v>5</v>
@@ -10349,7 +10354,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B865">
         <v>5</v>
@@ -10357,7 +10362,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B866">
         <v>5</v>
@@ -10365,7 +10370,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B867">
         <v>5</v>
@@ -10373,7 +10378,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B868">
         <v>5</v>
@@ -10381,7 +10386,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B869">
         <v>5</v>
@@ -10389,7 +10394,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B870">
         <v>5</v>
@@ -10397,7 +10402,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B871">
         <v>5</v>
@@ -10405,7 +10410,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B872">
         <v>5</v>
@@ -10413,7 +10418,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B873">
         <v>5</v>
@@ -10421,7 +10426,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B874">
         <v>5</v>
@@ -10429,7 +10434,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B875">
         <v>5</v>
@@ -10437,7 +10442,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B876">
         <v>5</v>
@@ -10445,7 +10450,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B877">
         <v>5</v>
@@ -10453,7 +10458,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B878">
         <v>5</v>
@@ -10461,7 +10466,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B879">
         <v>5</v>
@@ -10469,7 +10474,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B880">
         <v>5</v>
@@ -10477,7 +10482,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B881">
         <v>5</v>
@@ -10485,7 +10490,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B882">
         <v>5</v>
@@ -10493,7 +10498,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B883">
         <v>5</v>
@@ -10501,7 +10506,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B884">
         <v>5</v>
@@ -10509,7 +10514,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B885">
         <v>5</v>
@@ -10517,7 +10522,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B886">
         <v>5</v>
@@ -10525,7 +10530,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B887">
         <v>5</v>
@@ -10533,7 +10538,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B888">
         <v>5</v>
@@ -10541,7 +10546,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B889">
         <v>5</v>
@@ -10549,7 +10554,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B890">
         <v>5</v>
@@ -10557,7 +10562,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B891">
         <v>5</v>
@@ -10565,7 +10570,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B892">
         <v>5</v>
@@ -10573,7 +10578,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B893">
         <v>5</v>
@@ -10581,7 +10586,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B894">
         <v>5</v>
@@ -10589,7 +10594,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B895">
         <v>5</v>
@@ -10597,7 +10602,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B896">
         <v>5</v>
@@ -10605,7 +10610,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B897">
         <v>5</v>
@@ -10613,7 +10618,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B898">
         <v>5</v>
@@ -10621,7 +10626,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B899">
         <v>5</v>
@@ -10629,7 +10634,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B900">
         <v>5</v>
@@ -10637,7 +10642,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B901">
         <v>5</v>
@@ -10645,7 +10650,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B902">
         <v>5</v>
@@ -10653,7 +10658,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B903">
         <v>5</v>
@@ -10661,7 +10666,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B904">
         <v>5</v>
@@ -10669,7 +10674,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B905">
         <v>5</v>
@@ -10677,7 +10682,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B906">
         <v>5</v>
@@ -10685,7 +10690,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B907">
         <v>5</v>
@@ -10693,7 +10698,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B908">
         <v>5</v>
@@ -10701,7 +10706,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B909">
         <v>5</v>
@@ -10709,7 +10714,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B910">
         <v>5</v>
@@ -10717,7 +10722,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B911">
         <v>5</v>
@@ -10725,7 +10730,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B912">
         <v>5</v>
@@ -10733,7 +10738,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B913">
         <v>5</v>
@@ -10741,7 +10746,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B914">
         <v>5</v>
@@ -10749,7 +10754,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B915">
         <v>5</v>
@@ -10757,7 +10762,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B916">
         <v>5</v>
@@ -10765,7 +10770,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B917">
         <v>5</v>
@@ -10773,7 +10778,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B918">
         <v>5</v>
@@ -10781,7 +10786,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B919">
         <v>5</v>
@@ -10789,7 +10794,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B920">
         <v>5</v>
@@ -10797,7 +10802,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B921">
         <v>5</v>
@@ -10805,7 +10810,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B922">
         <v>5</v>
@@ -10813,7 +10818,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B923">
         <v>5</v>
@@ -10821,7 +10826,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B924">
         <v>5</v>
@@ -10829,7 +10834,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B925">
         <v>5</v>
@@ -10837,7 +10842,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B926">
         <v>5</v>
@@ -10845,7 +10850,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B927">
         <v>5</v>
@@ -10853,7 +10858,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B928">
         <v>5</v>
@@ -10861,7 +10866,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B929">
         <v>5</v>
@@ -10869,7 +10874,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B930">
         <v>5</v>
@@ -10877,7 +10882,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B931">
         <v>5</v>
@@ -10885,7 +10890,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B932">
         <v>5</v>
@@ -10893,7 +10898,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B933">
         <v>5</v>
@@ -10901,7 +10906,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B934">
         <v>5</v>
@@ -10909,7 +10914,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B935">
         <v>5</v>
@@ -10917,7 +10922,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B936">
         <v>5</v>
@@ -10925,7 +10930,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B937">
         <v>5</v>
@@ -10933,7 +10938,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B938">
         <v>5</v>
@@ -10941,7 +10946,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B939">
         <v>5</v>
@@ -10949,7 +10954,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B940">
         <v>5</v>
@@ -10957,7 +10962,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B941">
         <v>5</v>
@@ -10965,7 +10970,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B942">
         <v>5</v>
@@ -10973,7 +10978,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B943">
         <v>5</v>
@@ -10981,7 +10986,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B944">
         <v>5</v>
@@ -10989,7 +10994,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B945">
         <v>5</v>
@@ -10997,7 +11002,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B946">
         <v>5</v>
@@ -11005,7 +11010,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B947">
         <v>5</v>
@@ -11013,7 +11018,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B948">
         <v>5</v>
@@ -11021,7 +11026,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B949">
         <v>5</v>
@@ -11029,7 +11034,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B950">
         <v>5</v>
@@ -11037,7 +11042,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B951">
         <v>5</v>
@@ -11045,7 +11050,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B952">
         <v>5</v>
@@ -11053,7 +11058,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B953">
         <v>5</v>
@@ -11061,7 +11066,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B954">
         <v>5</v>
@@ -11069,7 +11074,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B955">
         <v>5</v>
@@ -11077,7 +11082,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B956">
         <v>5</v>
@@ -11085,7 +11090,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B957">
         <v>5</v>
@@ -11093,7 +11098,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B958">
         <v>5</v>
@@ -11101,7 +11106,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B959">
         <v>5</v>
@@ -11109,7 +11114,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B960">
         <v>5</v>
@@ -11117,7 +11122,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B961">
         <v>5</v>
@@ -11125,7 +11130,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B962">
         <v>5</v>
@@ -11133,7 +11138,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B963">
         <v>5</v>
@@ -11141,7 +11146,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B964">
         <v>5</v>
@@ -11149,7 +11154,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B965">
         <v>5</v>
@@ -11157,7 +11162,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B966">
         <v>5</v>
@@ -11165,7 +11170,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B967">
         <v>5</v>
@@ -11173,7 +11178,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B968">
         <v>5</v>
@@ -11181,7 +11186,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B969">
         <v>5</v>
@@ -11189,7 +11194,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B970">
         <v>5</v>
@@ -11197,7 +11202,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B971">
         <v>5</v>
@@ -11205,7 +11210,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B972">
         <v>5</v>
@@ -11213,7 +11218,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B973">
         <v>5</v>
@@ -11221,7 +11226,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B974">
         <v>5</v>
@@ -11229,7 +11234,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B975">
         <v>5</v>
@@ -11237,7 +11242,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B976">
         <v>5</v>
@@ -11245,7 +11250,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A977" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B977">
         <v>5</v>
@@ -11253,7 +11258,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A978" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B978">
         <v>5</v>
@@ -11261,7 +11266,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A979" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B979">
         <v>5</v>
@@ -11269,7 +11274,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A980" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B980">
         <v>5</v>
@@ -11277,7 +11282,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A981" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B981">
         <v>5</v>
@@ -11285,7 +11290,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A982" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B982">
         <v>5</v>
@@ -11293,7 +11298,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A983" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B983">
         <v>5</v>
@@ -11301,7 +11306,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A984" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B984">
         <v>5</v>
@@ -11309,7 +11314,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A985" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B985">
         <v>5</v>
@@ -11317,7 +11322,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A986" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B986">
         <v>5</v>
@@ -11325,7 +11330,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A987" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B987">
         <v>5</v>
@@ -11333,7 +11338,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A988" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B988">
         <v>5</v>
@@ -11341,7 +11346,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A989" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B989">
         <v>5</v>
@@ -11349,7 +11354,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A990" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B990">
         <v>5</v>
@@ -11357,7 +11362,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A991" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B991">
         <v>5</v>
@@ -11365,7 +11370,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A992" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B992">
         <v>5</v>
@@ -11373,7 +11378,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A993" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B993">
         <v>5</v>
@@ -11381,7 +11386,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A994" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B994">
         <v>5</v>
@@ -11389,7 +11394,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A995" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B995">
         <v>5</v>
@@ -11397,7 +11402,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A996" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B996">
         <v>5</v>
@@ -11405,7 +11410,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A997" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B997">
         <v>5</v>
@@ -11413,7 +11418,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A998" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B998">
         <v>5</v>
@@ -11421,7 +11426,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A999" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B999">
         <v>5</v>
@@ -11429,7 +11434,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1000" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B1000">
         <v>5</v>
@@ -11437,7 +11442,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1001" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1001">
         <v>5</v>
@@ -11445,7 +11450,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1002" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B1002">
         <v>5</v>
@@ -11453,7 +11458,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1003" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B1003">
         <v>5</v>
@@ -11461,7 +11466,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1004" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B1004">
         <v>5</v>
@@ -11469,7 +11474,7 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1005" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B1005">
         <v>5</v>
@@ -11477,7 +11482,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1006" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B1006">
         <v>5</v>
@@ -11485,7 +11490,7 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1007" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1007">
         <v>5</v>
@@ -11493,7 +11498,7 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1008" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B1008">
         <v>5</v>
@@ -11501,7 +11506,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1009" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1009">
         <v>5</v>
@@ -11509,7 +11514,7 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1010" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1010">
         <v>5</v>
@@ -11517,7 +11522,7 @@
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1011" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B1011">
         <v>5</v>
@@ -11525,7 +11530,7 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1012" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1012">
         <v>5</v>
@@ -11533,7 +11538,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1013" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B1013">
         <v>5</v>
@@ -11541,7 +11546,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1014" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B1014">
         <v>5</v>
@@ -11549,7 +11554,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1015" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B1015">
         <v>5</v>
@@ -11557,7 +11562,7 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1016" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B1016">
         <v>5</v>
@@ -11565,7 +11570,7 @@
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1017" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1017">
         <v>5</v>
@@ -11573,7 +11578,7 @@
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1018" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1018">
         <v>5</v>

--- a/Chinese_Family_Name（1k）.xlsx
+++ b/Chinese_Family_Name（1k）.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="中文姓氏1017个" sheetId="1" r:id="rId1"/>
+    <sheet name="中文姓氏1074个" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1076">
   <si>
     <t>阿</t>
   </si>
@@ -3067,11 +3067,182 @@
     <t>佐</t>
   </si>
   <si>
+    <t>颛孙</t>
+  </si>
+  <si>
+    <t>太史</t>
+  </si>
+  <si>
+    <t>独孤</t>
+  </si>
+  <si>
+    <t>纳兰</t>
+  </si>
+  <si>
+    <t>殴阳</t>
+  </si>
+  <si>
+    <t>长孙</t>
+  </si>
+  <si>
+    <t>司空</t>
+  </si>
+  <si>
+    <t>冷狐</t>
+  </si>
+  <si>
+    <t>万俟</t>
+  </si>
+  <si>
+    <t>百里</t>
+  </si>
+  <si>
+    <t>钟离</t>
+  </si>
+  <si>
+    <t>西门</t>
+  </si>
+  <si>
+    <t>亓官</t>
+  </si>
+  <si>
+    <t>拓跋</t>
+  </si>
+  <si>
+    <t>巫马</t>
+  </si>
+  <si>
+    <t>闾丘</t>
+  </si>
+  <si>
+    <t>司寇</t>
+  </si>
+  <si>
+    <t>南门</t>
+  </si>
+  <si>
+    <t>乐正</t>
+  </si>
+  <si>
+    <t>段干</t>
+  </si>
+  <si>
+    <t>左丘</t>
+  </si>
+  <si>
+    <t>公西</t>
+  </si>
+  <si>
+    <t>爨</t>
+  </si>
+  <si>
+    <t>甯</t>
+  </si>
+  <si>
+    <t>上官</t>
+  </si>
+  <si>
+    <t>诸葛</t>
+  </si>
+  <si>
+    <t>皇甫</t>
+  </si>
+  <si>
+    <t>司徒</t>
+  </si>
+  <si>
+    <t>申屠</t>
+  </si>
+  <si>
+    <t>司马</t>
+  </si>
+  <si>
+    <t>尉迟</t>
+  </si>
+  <si>
+    <t>端木</t>
+  </si>
+  <si>
+    <t>夏侯</t>
+  </si>
+  <si>
+    <t>慕容</t>
+  </si>
+  <si>
+    <t>令狐</t>
+  </si>
+  <si>
+    <t>呼延</t>
+  </si>
+  <si>
+    <t>刘付</t>
+  </si>
+  <si>
+    <t>宇文</t>
+  </si>
+  <si>
+    <t>轩辕</t>
+  </si>
+  <si>
+    <t>太叔</t>
+  </si>
+  <si>
+    <t>公孙</t>
+  </si>
+  <si>
+    <t>澹台</t>
+  </si>
+  <si>
+    <t>夏候</t>
+  </si>
+  <si>
+    <t>宗政</t>
+  </si>
+  <si>
+    <t>赫连</t>
+  </si>
+  <si>
+    <t>公冶</t>
+  </si>
+  <si>
+    <t>仲孙</t>
+  </si>
+  <si>
+    <t>完颜</t>
+  </si>
+  <si>
+    <t>淳于</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>闻人</t>
+  </si>
+  <si>
+    <t>鲜于</t>
+  </si>
+  <si>
+    <t>公羊</t>
+  </si>
+  <si>
+    <t>第五</t>
+  </si>
+  <si>
+    <t>南宫</t>
+  </si>
+  <si>
+    <t>刘傅</t>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NameB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3431,21 +3602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1018"/>
+  <dimension ref="A1:B1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1017</v>
+        <v>1075</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1018</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4042,127 +4213,127 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="B76">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>844</v>
+        <v>324</v>
       </c>
       <c r="B77">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="B78">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>892</v>
+        <v>834</v>
       </c>
       <c r="B79">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>892</v>
       </c>
       <c r="B80">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B81">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>407</v>
+        <v>144</v>
       </c>
       <c r="B82">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B83">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>659</v>
+        <v>412</v>
       </c>
       <c r="B84">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>448</v>
+        <v>659</v>
       </c>
       <c r="B85">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>448</v>
       </c>
       <c r="B86">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>713</v>
+        <v>573</v>
       </c>
       <c r="B87">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="B88">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>713</v>
       </c>
       <c r="B89">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B90">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>479</v>
+        <v>206</v>
       </c>
       <c r="B91">
         <v>264</v>
@@ -4170,26 +4341,26 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>639</v>
+        <v>242</v>
       </c>
       <c r="B92">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>738</v>
+        <v>639</v>
       </c>
       <c r="B93">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>573</v>
+        <v>738</v>
       </c>
       <c r="B94">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -4474,34 +4645,34 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>956</v>
+        <v>537</v>
       </c>
       <c r="B130">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>537</v>
+        <v>200</v>
       </c>
       <c r="B131">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B132">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>705</v>
       </c>
       <c r="B133">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -4570,23 +4741,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="B142">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>533</v>
       </c>
       <c r="B143">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>616</v>
+        <v>179</v>
       </c>
       <c r="B144">
         <v>109</v>
@@ -4594,7 +4765,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="B145">
         <v>109</v>
@@ -4602,7 +4773,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="B146">
         <v>109</v>
@@ -4610,15 +4781,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>304</v>
+        <v>672</v>
       </c>
       <c r="B147">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="B148">
         <v>106</v>
@@ -4626,15 +4797,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="B149">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>728</v>
+        <v>486</v>
       </c>
       <c r="B150">
         <v>105</v>
@@ -4642,15 +4813,15 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>728</v>
       </c>
       <c r="B151">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="B152">
         <v>103</v>
@@ -4658,15 +4829,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>115</v>
+        <v>441</v>
       </c>
       <c r="B153">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="B154">
         <v>101</v>
@@ -4674,15 +4845,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="B155">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="B156">
         <v>100</v>
@@ -4690,7 +4861,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>499</v>
+        <v>292</v>
       </c>
       <c r="B157">
         <v>100</v>
@@ -4698,7 +4869,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="B158">
         <v>100</v>
@@ -4706,7 +4877,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>730</v>
+        <v>547</v>
       </c>
       <c r="B159">
         <v>100</v>
@@ -4714,23 +4885,23 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>730</v>
       </c>
       <c r="B160">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>594</v>
+        <v>216</v>
       </c>
       <c r="B161">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="B162">
         <v>98</v>
@@ -4738,15 +4909,15 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="B163">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>759</v>
+        <v>602</v>
       </c>
       <c r="B164">
         <v>97</v>
@@ -4754,15 +4925,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>400</v>
+        <v>759</v>
       </c>
       <c r="B165">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="B166">
         <v>96</v>
@@ -4770,31 +4941,31 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B167">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>905</v>
+        <v>461</v>
       </c>
       <c r="B168">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>345</v>
+        <v>905</v>
       </c>
       <c r="B169">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>811</v>
+        <v>345</v>
       </c>
       <c r="B170">
         <v>92</v>
@@ -4802,47 +4973,47 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>538</v>
+        <v>811</v>
       </c>
       <c r="B171">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>538</v>
       </c>
       <c r="B172">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="B173">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>489</v>
+        <v>58</v>
       </c>
       <c r="B174">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>489</v>
       </c>
       <c r="B175">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="B176">
         <v>82</v>
@@ -4850,31 +5021,31 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>922</v>
+        <v>273</v>
       </c>
       <c r="B177">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>565</v>
+        <v>922</v>
       </c>
       <c r="B178">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>161</v>
+        <v>565</v>
       </c>
       <c r="B179">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>555</v>
+        <v>161</v>
       </c>
       <c r="B180">
         <v>75</v>
@@ -4882,31 +5053,31 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>716</v>
+        <v>555</v>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>802</v>
+        <v>716</v>
       </c>
       <c r="B182">
-        <v>73.900000000000006</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>595</v>
+        <v>802</v>
       </c>
       <c r="B183">
-        <v>73</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B184">
         <v>73</v>
@@ -4914,47 +5085,47 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>341</v>
+        <v>604</v>
       </c>
       <c r="B185">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>513</v>
+        <v>341</v>
       </c>
       <c r="B186">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="B187">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>901</v>
+        <v>2</v>
       </c>
       <c r="B188">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>657</v>
+        <v>901</v>
       </c>
       <c r="B189">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>857</v>
+        <v>657</v>
       </c>
       <c r="B190">
         <v>67</v>
@@ -4962,79 +5133,79 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>520</v>
+        <v>857</v>
       </c>
       <c r="B191">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>536</v>
+        <v>848</v>
       </c>
       <c r="B192">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="B193">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>894</v>
       </c>
       <c r="B194">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>298</v>
+        <v>536</v>
       </c>
       <c r="B195">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>1002</v>
+        <v>680</v>
       </c>
       <c r="B196">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="B197">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B198">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>426</v>
+        <v>1002</v>
       </c>
       <c r="B199">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>454</v>
+        <v>73</v>
       </c>
       <c r="B200">
         <v>57</v>
@@ -5042,7 +5213,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>508</v>
+        <v>318</v>
       </c>
       <c r="B201">
         <v>57</v>
@@ -5050,7 +5221,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>799</v>
+        <v>426</v>
       </c>
       <c r="B202">
         <v>57</v>
@@ -5058,39 +5229,39 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="B203">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>95</v>
+        <v>799</v>
       </c>
       <c r="B204">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>140</v>
+        <v>476</v>
       </c>
       <c r="B205">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="B206">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>562</v>
+        <v>140</v>
       </c>
       <c r="B207">
         <v>53</v>
@@ -5098,23 +5269,23 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="B208">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>119</v>
+        <v>562</v>
       </c>
       <c r="B209">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="B210">
         <v>52</v>
@@ -5122,7 +5293,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="B211">
         <v>52</v>
@@ -5130,55 +5301,55 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="B212">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="B213">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="B214">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>852</v>
+        <v>164</v>
       </c>
       <c r="B215">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>705</v>
+        <v>410</v>
       </c>
       <c r="B216">
-        <v>49.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="B217">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="B218">
         <v>48</v>
@@ -5210,18 +5381,18 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>1010</v>
+        <v>692</v>
       </c>
       <c r="B222">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>112</v>
+        <v>1010</v>
       </c>
       <c r="B223">
-        <v>44.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -5258,7 +5429,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="B228">
         <v>43</v>
@@ -5266,7 +5437,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>727</v>
+        <v>502</v>
       </c>
       <c r="B229">
         <v>43</v>
@@ -5274,7 +5445,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>894</v>
+        <v>727</v>
       </c>
       <c r="B230">
         <v>43</v>
@@ -5346,7 +5517,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="B239">
         <v>40</v>
@@ -5354,7 +5525,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>467</v>
+        <v>588</v>
       </c>
       <c r="B240">
         <v>40</v>
@@ -5362,15 +5533,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>692</v>
+        <v>130</v>
       </c>
       <c r="B241">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="B242">
         <v>39</v>
@@ -5378,7 +5549,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B243">
         <v>39</v>
@@ -5386,15 +5557,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>633</v>
+        <v>385</v>
       </c>
       <c r="B244">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>385</v>
+        <v>610</v>
       </c>
       <c r="B245">
         <v>38</v>
@@ -5402,7 +5573,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>610</v>
+        <v>764</v>
       </c>
       <c r="B246">
         <v>38</v>
@@ -5410,15 +5581,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>764</v>
+        <v>401</v>
       </c>
       <c r="B247">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>401</v>
+        <v>626</v>
       </c>
       <c r="B248">
         <v>37</v>
@@ -5426,15 +5597,15 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>626</v>
+        <v>104</v>
       </c>
       <c r="B249">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>104</v>
+        <v>970</v>
       </c>
       <c r="B250">
         <v>36</v>
@@ -5442,23 +5613,23 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>848</v>
+        <v>6</v>
       </c>
       <c r="B251">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>970</v>
+        <v>914</v>
       </c>
       <c r="B252">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>6</v>
+        <v>989</v>
       </c>
       <c r="B253">
         <v>35</v>
@@ -5466,23 +5637,23 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>914</v>
+        <v>82</v>
       </c>
       <c r="B254">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>989</v>
+        <v>207</v>
       </c>
       <c r="B255">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="B256">
         <v>34</v>
@@ -5490,7 +5661,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>207</v>
+        <v>641</v>
       </c>
       <c r="B257">
         <v>34</v>
@@ -5498,23 +5669,23 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>506</v>
+        <v>56</v>
       </c>
       <c r="B258">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>641</v>
+        <v>473</v>
       </c>
       <c r="B259">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>56</v>
+        <v>932</v>
       </c>
       <c r="B260">
         <v>33</v>
@@ -5522,39 +5693,39 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="B261">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>932</v>
+        <v>390</v>
       </c>
       <c r="B262">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="B263">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="B264">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>167</v>
+        <v>703</v>
       </c>
       <c r="B265">
         <v>31</v>
@@ -5562,63 +5733,63 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>219</v>
+        <v>358</v>
       </c>
       <c r="B266">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>703</v>
+        <v>389</v>
       </c>
       <c r="B267">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="B268">
-        <v>30</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="B269">
-        <v>30</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>289</v>
+        <v>405</v>
       </c>
       <c r="B270">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="B271">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>405</v>
+        <v>823</v>
       </c>
       <c r="B272">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>308</v>
+        <v>921</v>
       </c>
       <c r="B273">
         <v>28.5</v>
@@ -5626,71 +5797,71 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>823</v>
+        <v>525</v>
       </c>
       <c r="B274">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>921</v>
+        <v>17</v>
       </c>
       <c r="B275">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>525</v>
+        <v>92</v>
       </c>
       <c r="B276">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>17</v>
+        <v>454</v>
       </c>
       <c r="B277">
-        <v>27.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>92</v>
+        <v>928</v>
       </c>
       <c r="B278">
-        <v>27.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>928</v>
+        <v>425</v>
       </c>
       <c r="B279">
-        <v>27</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>425</v>
+        <v>854</v>
       </c>
       <c r="B280">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>854</v>
+        <v>94</v>
       </c>
       <c r="B281">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>842</v>
       </c>
       <c r="B282">
         <v>26.3</v>
@@ -5698,10 +5869,10 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="B283">
-        <v>26.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
@@ -5746,7 +5917,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>451</v>
+        <v>689</v>
       </c>
       <c r="B289">
         <v>22.8</v>
@@ -5754,7 +5925,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="B290">
         <v>22.8</v>
@@ -5762,119 +5933,119 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>793</v>
+        <v>543</v>
       </c>
       <c r="B291">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="B292">
-        <v>22.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>477</v>
+        <v>757</v>
       </c>
       <c r="B293">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>757</v>
+        <v>419</v>
       </c>
       <c r="B294">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>751</v>
+        <v>872</v>
       </c>
       <c r="B295">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="B296">
-        <v>20.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>872</v>
+        <v>725</v>
       </c>
       <c r="B297">
-        <v>20.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>725</v>
+        <v>593</v>
       </c>
       <c r="B298">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>593</v>
+        <v>195</v>
       </c>
       <c r="B299">
-        <v>19.899999999999999</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="B300">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="B301">
-        <v>19.7</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="B302">
-        <v>19.600000000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>599</v>
       </c>
       <c r="B303">
-        <v>19.5</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="B304">
-        <v>19.100000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="B305">
         <v>19</v>
@@ -5882,79 +6053,79 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>675</v>
+        <v>731</v>
       </c>
       <c r="B306">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>731</v>
+        <v>557</v>
       </c>
       <c r="B307">
-        <v>18.899999999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B308">
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>557</v>
+        <v>429</v>
       </c>
       <c r="B309">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>187</v>
+        <v>428</v>
       </c>
       <c r="B310">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>429</v>
+        <v>917</v>
       </c>
       <c r="B311">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="B312">
-        <v>18.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>917</v>
+        <v>10</v>
       </c>
       <c r="B313">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>349</v>
+        <v>563</v>
       </c>
       <c r="B314">
-        <v>17.899999999999999</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>10</v>
+        <v>1014</v>
       </c>
       <c r="B315">
         <v>17.7</v>
@@ -5962,111 +6133,111 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>563</v>
+        <v>165</v>
       </c>
       <c r="B316">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>1014</v>
+        <v>977</v>
       </c>
       <c r="B317">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>165</v>
+        <v>585</v>
       </c>
       <c r="B318">
-        <v>17.600000000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>977</v>
+        <v>230</v>
       </c>
       <c r="B319">
-        <v>17.3</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>585</v>
+        <v>124</v>
       </c>
       <c r="B320">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>230</v>
+        <v>554</v>
       </c>
       <c r="B321">
-        <v>17.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B322">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>554</v>
+        <v>696</v>
       </c>
       <c r="B323">
-        <v>16.600000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>302</v>
+        <v>831</v>
       </c>
       <c r="B324">
-        <v>16.5</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
       <c r="B325">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="B326">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>344</v>
+        <v>956</v>
       </c>
       <c r="B327">
-        <v>16.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>795</v>
+        <v>90</v>
       </c>
       <c r="B328">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>90</v>
+        <v>488</v>
       </c>
       <c r="B329">
         <v>15.9</v>
@@ -6074,55 +6245,55 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>488</v>
+        <v>938</v>
       </c>
       <c r="B330">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>938</v>
+        <v>611</v>
       </c>
       <c r="B331">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>611</v>
+        <v>351</v>
       </c>
       <c r="B332">
-        <v>15.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="B333">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>397</v>
+        <v>271</v>
       </c>
       <c r="B334">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="B335">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B336">
         <v>14.6</v>
@@ -6130,7 +6301,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>137</v>
+        <v>617</v>
       </c>
       <c r="B337">
         <v>14.6</v>
@@ -6138,15 +6309,15 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="B338">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="B339">
         <v>14.5</v>
@@ -6154,15 +6325,15 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>601</v>
+        <v>196</v>
       </c>
       <c r="B340">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>196</v>
+        <v>558</v>
       </c>
       <c r="B341">
         <v>14.4</v>
@@ -6170,23 +6341,23 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>174</v>
       </c>
       <c r="B342">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="B343">
-        <v>14.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="B344">
         <v>14</v>
@@ -6194,15 +6365,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
       <c r="B345">
-        <v>14</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>126</v>
+        <v>898</v>
       </c>
       <c r="B346">
         <v>13.9</v>
@@ -6210,23 +6381,23 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>898</v>
+        <v>214</v>
       </c>
       <c r="B347">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="B348">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="B349">
         <v>13.6</v>
@@ -6234,167 +6405,167 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>856</v>
+        <v>514</v>
       </c>
       <c r="B350">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="B351">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>762</v>
+        <v>592</v>
       </c>
       <c r="B352">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>564</v>
+        <v>822</v>
       </c>
       <c r="B353">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>592</v>
+        <v>700</v>
       </c>
       <c r="B354">
-        <v>13.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>822</v>
+        <v>239</v>
       </c>
       <c r="B355">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>700</v>
+        <v>252</v>
       </c>
       <c r="B356">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
       <c r="B357">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>252</v>
+        <v>521</v>
       </c>
       <c r="B358">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>391</v>
+        <v>688</v>
       </c>
       <c r="B359">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>521</v>
+        <v>790</v>
       </c>
       <c r="B360">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>688</v>
+        <v>458</v>
       </c>
       <c r="B361">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="B362">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B363">
-        <v>12.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>893</v>
+        <v>779</v>
       </c>
       <c r="B364">
-        <v>12.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="B365">
-        <v>12</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>614</v>
+        <v>995</v>
       </c>
       <c r="B366">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="B367">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>957</v>
+        <v>519</v>
       </c>
       <c r="B368">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>519</v>
+        <v>743</v>
       </c>
       <c r="B369">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>743</v>
+        <v>919</v>
       </c>
       <c r="B370">
         <v>11.2</v>
@@ -6402,31 +6573,31 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>919</v>
+        <v>891</v>
       </c>
       <c r="B371">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>891</v>
+        <v>377</v>
       </c>
       <c r="B372">
-        <v>11.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="B373">
-        <v>11</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="B374">
         <v>10.9</v>
@@ -6434,10 +6605,10 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="B375">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
@@ -6498,23 +6669,23 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>855</v>
+        <v>911</v>
       </c>
       <c r="B383">
-        <v>10</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>911</v>
+        <v>265</v>
       </c>
       <c r="B384">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="B385">
         <v>9.8000000000000007</v>
@@ -6522,15 +6693,15 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="B386">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>188</v>
+        <v>337</v>
       </c>
       <c r="B387">
         <v>9.6</v>
@@ -6538,15 +6709,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>337</v>
+        <v>117</v>
       </c>
       <c r="B388">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>117</v>
+        <v>752</v>
       </c>
       <c r="B389">
         <v>9.5</v>
@@ -6554,39 +6725,39 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>752</v>
+        <v>682</v>
       </c>
       <c r="B390">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>682</v>
+        <v>926</v>
       </c>
       <c r="B391">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>926</v>
+        <v>673</v>
       </c>
       <c r="B392">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="B393">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>708</v>
+        <v>873</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -6594,15 +6765,15 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="B395">
-        <v>9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>813</v>
+        <v>889</v>
       </c>
       <c r="B396">
         <v>8.9</v>
@@ -6610,7 +6781,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>889</v>
+        <v>955</v>
       </c>
       <c r="B397">
         <v>8.9</v>
@@ -6618,15 +6789,15 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B398">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>944</v>
+        <v>983</v>
       </c>
       <c r="B399">
         <v>8.6999999999999993</v>
@@ -6634,23 +6805,23 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>983</v>
+        <v>819</v>
       </c>
       <c r="B400">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>819</v>
+        <v>172</v>
       </c>
       <c r="B401">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>172</v>
+        <v>979</v>
       </c>
       <c r="B402">
         <v>8.5</v>
@@ -6658,15 +6829,15 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>979</v>
+        <v>186</v>
       </c>
       <c r="B403">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="B404">
         <v>8.4</v>
@@ -6674,15 +6845,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="B405">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="B406">
         <v>8</v>
@@ -6690,7 +6861,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>902</v>
+        <v>424</v>
       </c>
       <c r="B407">
         <v>8</v>
@@ -6698,130 +6869,130 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>3</v>
+        <v>668</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>5</v>
+        <v>902</v>
       </c>
       <c r="B410">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>7</v>
+        <v>997</v>
       </c>
       <c r="B411">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B412">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B413">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="B416">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="B417">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="B418">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>20</v>
+        <v>556</v>
       </c>
       <c r="B419">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
       <c r="B420">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>23</v>
+        <v>753</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>24</v>
+        <v>775</v>
       </c>
       <c r="B422">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>25</v>
+        <v>838</v>
       </c>
       <c r="B423">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
@@ -6829,796 +7000,796 @@
         <v>26</v>
       </c>
       <c r="B424">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B425">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B426">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B429">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B430">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B431">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="B432">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B433">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="B434">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="B436">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="B437">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="B440">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="B441">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>51</v>
+        <v>357</v>
       </c>
       <c r="B442">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="B444">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>947</v>
+        <v>392</v>
       </c>
       <c r="B445">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>57</v>
+        <v>418</v>
       </c>
       <c r="B446">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>59</v>
+        <v>423</v>
       </c>
       <c r="B447">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="B448">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>62</v>
+        <v>472</v>
       </c>
       <c r="B449">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>64</v>
+        <v>482</v>
       </c>
       <c r="B450">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="B451">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>67</v>
+        <v>515</v>
       </c>
       <c r="B453">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>68</v>
+        <v>571</v>
       </c>
       <c r="B454">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>70</v>
+        <v>579</v>
       </c>
       <c r="B455">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>71</v>
+        <v>596</v>
       </c>
       <c r="B456">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>72</v>
+        <v>629</v>
       </c>
       <c r="B457">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>74</v>
+        <v>649</v>
       </c>
       <c r="B458">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>76</v>
+        <v>663</v>
       </c>
       <c r="B459">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>79</v>
+        <v>690</v>
       </c>
       <c r="B460">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>80</v>
+        <v>715</v>
       </c>
       <c r="B461">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>84</v>
+        <v>722</v>
       </c>
       <c r="B462">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>85</v>
+        <v>737</v>
       </c>
       <c r="B463">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>86</v>
+        <v>748</v>
       </c>
       <c r="B464">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>87</v>
+        <v>761</v>
       </c>
       <c r="B465">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>89</v>
+        <v>762</v>
       </c>
       <c r="B466">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>91</v>
+        <v>766</v>
       </c>
       <c r="B467">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>93</v>
+        <v>792</v>
       </c>
       <c r="B468">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>96</v>
+        <v>810</v>
       </c>
       <c r="B469">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>98</v>
+        <v>829</v>
       </c>
       <c r="B470">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>99</v>
+        <v>843</v>
       </c>
       <c r="B471">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>100</v>
+        <v>846</v>
       </c>
       <c r="B472">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>97</v>
+        <v>864</v>
       </c>
       <c r="B473">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>101</v>
+        <v>895</v>
       </c>
       <c r="B474">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>102</v>
+        <v>912</v>
       </c>
       <c r="B475">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>103</v>
+        <v>918</v>
       </c>
       <c r="B476">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>106</v>
+        <v>964</v>
       </c>
       <c r="B477">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>107</v>
+        <v>988</v>
       </c>
       <c r="B478">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>108</v>
+        <v>1007</v>
       </c>
       <c r="B479">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B480">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B481">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B482">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B483">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B484">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B485">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B486">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="B487">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B488">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="B489">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="B490">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="B491">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="B492">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="B493">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="B494">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="B495">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>136</v>
+        <v>326</v>
       </c>
       <c r="B496">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="B497">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>141</v>
+        <v>415</v>
       </c>
       <c r="B498">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>143</v>
+        <v>432</v>
       </c>
       <c r="B499">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>145</v>
+        <v>483</v>
       </c>
       <c r="B500">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="B501">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>147</v>
+        <v>530</v>
       </c>
       <c r="B502">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>148</v>
+        <v>544</v>
       </c>
       <c r="B503">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>149</v>
+        <v>784</v>
       </c>
       <c r="B504">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>150</v>
+        <v>584</v>
       </c>
       <c r="B505">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>151</v>
+        <v>590</v>
       </c>
       <c r="B506">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>152</v>
+        <v>665</v>
       </c>
       <c r="B507">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>153</v>
+        <v>676</v>
       </c>
       <c r="B508">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>154</v>
+        <v>678</v>
       </c>
       <c r="B509">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>155</v>
+        <v>707</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>156</v>
+        <v>720</v>
       </c>
       <c r="B511">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>160</v>
+        <v>742</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>162</v>
+        <v>751</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>163</v>
+        <v>769</v>
       </c>
       <c r="B514">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>166</v>
+        <v>796</v>
       </c>
       <c r="B515">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>168</v>
+        <v>816</v>
       </c>
       <c r="B516">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>170</v>
+        <v>830</v>
       </c>
       <c r="B517">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>171</v>
+        <v>833</v>
       </c>
       <c r="B518">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="B519">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>175</v>
+        <v>867</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>176</v>
+        <v>915</v>
       </c>
       <c r="B521">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>177</v>
+        <v>927</v>
       </c>
       <c r="B522">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="B523">
         <v>5</v>
@@ -7626,7 +7797,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B524">
         <v>5</v>
@@ -7634,7 +7805,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="B525">
         <v>5</v>
@@ -7642,7 +7813,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="B526">
         <v>5</v>
@@ -7650,7 +7821,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="B527">
         <v>5</v>
@@ -7658,7 +7829,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="B528">
         <v>5</v>
@@ -7666,7 +7837,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B529">
         <v>5</v>
@@ -7674,7 +7845,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="B530">
         <v>5</v>
@@ -7682,7 +7853,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>194</v>
+        <v>1026</v>
       </c>
       <c r="B531">
         <v>5</v>
@@ -7690,7 +7861,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="B532">
         <v>5</v>
@@ -7698,7 +7869,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="B533">
         <v>5</v>
@@ -7706,7 +7877,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="B534">
         <v>5</v>
@@ -7714,7 +7885,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="B535">
         <v>5</v>
@@ -7722,7 +7893,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="B536">
         <v>5</v>
@@ -7730,7 +7901,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="B537">
         <v>5</v>
@@ -7738,7 +7909,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="B538">
         <v>5</v>
@@ -7746,7 +7917,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B539">
         <v>5</v>
@@ -7754,7 +7925,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="B540">
         <v>5</v>
@@ -7762,7 +7933,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="B541">
         <v>5</v>
@@ -7770,7 +7941,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="B542">
         <v>5</v>
@@ -7778,7 +7949,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="B543">
         <v>5</v>
@@ -7786,7 +7957,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B544">
         <v>5</v>
@@ -7794,7 +7965,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="B545">
         <v>5</v>
@@ -7802,7 +7973,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="B546">
         <v>5</v>
@@ -7810,7 +7981,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="B547">
         <v>5</v>
@@ -7818,7 +7989,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>231</v>
+        <v>947</v>
       </c>
       <c r="B548">
         <v>5</v>
@@ -7826,7 +7997,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="B549">
         <v>5</v>
@@ -7834,7 +8005,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="B550">
         <v>5</v>
@@ -7842,7 +8013,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
       <c r="B551">
         <v>5</v>
@@ -7850,7 +8021,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="B552">
         <v>5</v>
@@ -7858,7 +8029,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="B553">
         <v>5</v>
@@ -7866,7 +8037,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>817</v>
+        <v>67</v>
       </c>
       <c r="B554">
         <v>5</v>
@@ -7874,7 +8045,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="B555">
         <v>5</v>
@@ -7882,7 +8053,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="B556">
         <v>5</v>
@@ -7890,7 +8061,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="B557">
         <v>5</v>
@@ -7898,7 +8069,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="B558">
         <v>5</v>
@@ -7906,7 +8077,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="B559">
         <v>5</v>
@@ -7914,7 +8085,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="B560">
         <v>5</v>
@@ -7922,7 +8093,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="B561">
         <v>5</v>
@@ -7930,7 +8101,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -7938,7 +8109,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -7946,7 +8117,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="B564">
         <v>5</v>
@@ -7954,7 +8125,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="B565">
         <v>5</v>
@@ -7962,7 +8133,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="B566">
         <v>5</v>
@@ -7970,7 +8141,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c r="B567">
         <v>5</v>
@@ -7978,7 +8149,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="B568">
         <v>5</v>
@@ -7986,7 +8157,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="B569">
         <v>5</v>
@@ -7994,7 +8165,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="B570">
         <v>5</v>
@@ -8002,7 +8173,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="B571">
         <v>5</v>
@@ -8010,7 +8181,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
-        <v>268</v>
+        <v>1065</v>
       </c>
       <c r="B572">
         <v>5</v>
@@ -8018,7 +8189,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="B573">
         <v>5</v>
@@ -8026,7 +8197,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="B574">
         <v>5</v>
@@ -8034,7 +8205,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="B575">
         <v>5</v>
@@ -8042,7 +8213,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
-        <v>275</v>
+        <v>1039</v>
       </c>
       <c r="B576">
         <v>5</v>
@@ -8050,7 +8221,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="B577">
         <v>5</v>
@@ -8058,7 +8229,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="B578">
         <v>5</v>
@@ -8066,7 +8237,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="B579">
         <v>5</v>
@@ -8074,7 +8245,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="B580">
         <v>5</v>
@@ -8082,7 +8253,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="B581">
         <v>5</v>
@@ -8090,7 +8261,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="B582">
         <v>5</v>
@@ -8098,7 +8269,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="B583">
         <v>5</v>
@@ -8106,7 +8277,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="B584">
         <v>5</v>
@@ -8114,7 +8285,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
-        <v>287</v>
+        <v>1058</v>
       </c>
       <c r="B585">
         <v>5</v>
@@ -8122,7 +8293,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="B586">
         <v>5</v>
@@ -8130,7 +8301,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="B587">
         <v>5</v>
@@ -8138,7 +8309,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
       <c r="B588">
         <v>5</v>
@@ -8146,7 +8317,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="B589">
         <v>5</v>
@@ -8154,7 +8325,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="B590">
         <v>5</v>
@@ -8162,7 +8333,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="B591">
         <v>5</v>
@@ -8170,7 +8341,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
-        <v>299</v>
+        <v>1071</v>
       </c>
       <c r="B592">
         <v>5</v>
@@ -8178,7 +8349,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="B593">
         <v>5</v>
@@ -8186,7 +8357,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="B594">
         <v>5</v>
@@ -8194,7 +8365,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
-        <v>303</v>
+        <v>1066</v>
       </c>
       <c r="B595">
         <v>5</v>
@@ -8202,7 +8373,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="B596">
         <v>5</v>
@@ -8210,7 +8381,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="B597">
         <v>5</v>
@@ -8218,7 +8389,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="B598">
         <v>5</v>
@@ -8226,7 +8397,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
-        <v>310</v>
+        <v>1019</v>
       </c>
       <c r="B599">
         <v>5</v>
@@ -8234,7 +8405,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="B600">
         <v>5</v>
@@ -8242,7 +8413,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="B601">
         <v>5</v>
@@ -8250,7 +8421,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
-        <v>313</v>
+        <v>1048</v>
       </c>
       <c r="B602">
         <v>5</v>
@@ -8258,7 +8429,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
-        <v>314</v>
+        <v>1036</v>
       </c>
       <c r="B603">
         <v>5</v>
@@ -8266,7 +8437,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="B604">
         <v>5</v>
@@ -8274,7 +8445,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="B605">
         <v>5</v>
@@ -8282,7 +8453,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="B606">
         <v>5</v>
@@ -8290,7 +8461,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="B607">
         <v>5</v>
@@ -8298,7 +8469,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="B608">
         <v>5</v>
@@ -8306,7 +8477,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="B609">
         <v>5</v>
@@ -8314,7 +8485,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="B610">
         <v>5</v>
@@ -8322,7 +8493,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="B611">
         <v>5</v>
@@ -8330,7 +8501,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="B612">
         <v>5</v>
@@ -8338,7 +8509,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="B613">
         <v>5</v>
@@ -8346,7 +8517,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="B614">
         <v>5</v>
@@ -8354,7 +8525,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="B615">
         <v>5</v>
@@ -8362,7 +8533,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="B616">
         <v>5</v>
@@ -8370,7 +8541,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="B617">
         <v>5</v>
@@ -8378,7 +8549,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="B618">
         <v>5</v>
@@ -8386,7 +8557,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="B619">
         <v>5</v>
@@ -8394,7 +8565,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="B620">
         <v>5</v>
@@ -8402,7 +8573,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="B621">
         <v>5</v>
@@ -8410,7 +8581,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="B622">
         <v>5</v>
@@ -8418,7 +8589,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="B623">
         <v>5</v>
@@ -8426,7 +8597,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="B624">
         <v>5</v>
@@ -8434,7 +8605,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="B625">
         <v>5</v>
@@ -8442,7 +8613,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="B626">
         <v>5</v>
@@ -8450,7 +8621,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
       <c r="B627">
         <v>5</v>
@@ -8458,7 +8629,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="B628">
         <v>5</v>
@@ -8466,7 +8637,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="B629">
         <v>5</v>
@@ -8474,7 +8645,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="B630">
         <v>5</v>
@@ -8482,7 +8653,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
-        <v>361</v>
+        <v>197</v>
       </c>
       <c r="B631">
         <v>5</v>
@@ -8490,7 +8661,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="B632">
         <v>5</v>
@@ -8498,7 +8669,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
-        <v>362</v>
+        <v>1057</v>
       </c>
       <c r="B633">
         <v>5</v>
@@ -8506,7 +8677,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
-        <v>363</v>
+        <v>1038</v>
       </c>
       <c r="B634">
         <v>5</v>
@@ -8514,7 +8685,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
-        <v>364</v>
+        <v>1070</v>
       </c>
       <c r="B635">
         <v>5</v>
@@ -8522,7 +8693,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
-        <v>366</v>
+        <v>1062</v>
       </c>
       <c r="B636">
         <v>5</v>
@@ -8530,7 +8701,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B637">
         <v>5</v>
@@ -8538,7 +8709,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="B638">
         <v>5</v>
@@ -8546,7 +8717,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
       <c r="B639">
         <v>5</v>
@@ -8554,7 +8725,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="B640">
         <v>5</v>
@@ -8562,7 +8733,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="B641">
         <v>5</v>
@@ -8570,7 +8741,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="B642">
         <v>5</v>
@@ -8578,7 +8749,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
-        <v>373</v>
+        <v>220</v>
       </c>
       <c r="B643">
         <v>5</v>
@@ -8586,7 +8757,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>374</v>
+        <v>223</v>
       </c>
       <c r="B644">
         <v>5</v>
@@ -8594,7 +8765,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="B645">
         <v>5</v>
@@ -8602,7 +8773,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="B646">
         <v>5</v>
@@ -8610,7 +8781,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
-        <v>381</v>
+        <v>226</v>
       </c>
       <c r="B647">
         <v>5</v>
@@ -8618,7 +8789,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="B648">
         <v>5</v>
@@ -8626,7 +8797,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="B649">
         <v>5</v>
@@ -8634,7 +8805,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="B650">
         <v>5</v>
@@ -8642,7 +8813,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="B651">
         <v>5</v>
@@ -8650,7 +8821,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="B652">
         <v>5</v>
@@ -8658,7 +8829,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
-        <v>392</v>
+        <v>817</v>
       </c>
       <c r="B653">
         <v>5</v>
@@ -8666,7 +8837,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
-        <v>393</v>
+        <v>240</v>
       </c>
       <c r="B654">
         <v>5</v>
@@ -8674,7 +8845,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="B655">
         <v>5</v>
@@ -8682,7 +8853,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>395</v>
+        <v>243</v>
       </c>
       <c r="B656">
         <v>5</v>
@@ -8690,7 +8861,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="B657">
         <v>5</v>
@@ -8698,7 +8869,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="B658">
         <v>5</v>
@@ -8706,7 +8877,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="B659">
         <v>5</v>
@@ -8714,7 +8885,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="B660">
         <v>5</v>
@@ -8722,7 +8893,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="B661">
         <v>5</v>
@@ -8730,7 +8901,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
-        <v>409</v>
+        <v>1061</v>
       </c>
       <c r="B662">
         <v>5</v>
@@ -8738,7 +8909,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
-        <v>411</v>
+        <v>254</v>
       </c>
       <c r="B663">
         <v>5</v>
@@ -8746,7 +8917,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
-        <v>413</v>
+        <v>256</v>
       </c>
       <c r="B664">
         <v>5</v>
@@ -8754,7 +8925,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
-        <v>415</v>
+        <v>257</v>
       </c>
       <c r="B665">
         <v>5</v>
@@ -8762,7 +8933,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="B666">
         <v>5</v>
@@ -8770,7 +8941,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
-        <v>417</v>
+        <v>260</v>
       </c>
       <c r="B667">
         <v>5</v>
@@ -8778,7 +8949,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="B668">
         <v>5</v>
@@ -8786,7 +8957,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
-        <v>420</v>
+        <v>263</v>
       </c>
       <c r="B669">
         <v>5</v>
@@ -8794,7 +8965,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>421</v>
+        <v>1052</v>
       </c>
       <c r="B670">
         <v>5</v>
@@ -8802,7 +8973,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
-        <v>423</v>
+        <v>266</v>
       </c>
       <c r="B671">
         <v>5</v>
@@ -8810,7 +8981,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="B672">
         <v>5</v>
@@ -8818,7 +8989,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
-        <v>427</v>
+        <v>269</v>
       </c>
       <c r="B673">
         <v>5</v>
@@ -8826,7 +8997,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="B674">
         <v>5</v>
@@ -8834,7 +9005,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>432</v>
+        <v>277</v>
       </c>
       <c r="B675">
         <v>5</v>
@@ -8842,7 +9013,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
-        <v>433</v>
+        <v>278</v>
       </c>
       <c r="B676">
         <v>5</v>
@@ -8850,7 +9021,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="B677">
         <v>5</v>
@@ -8858,7 +9029,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
-        <v>436</v>
+        <v>282</v>
       </c>
       <c r="B678">
         <v>5</v>
@@ -8866,7 +9037,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
-        <v>438</v>
+        <v>284</v>
       </c>
       <c r="B679">
         <v>5</v>
@@ -8874,7 +9045,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
-        <v>440</v>
+        <v>1043</v>
       </c>
       <c r="B680">
         <v>5</v>
@@ -8882,7 +9053,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="B681">
         <v>5</v>
@@ -8890,7 +9061,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="B682">
         <v>5</v>
@@ -8898,7 +9069,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
-        <v>443</v>
+        <v>290</v>
       </c>
       <c r="B683">
         <v>5</v>
@@ -8906,7 +9077,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
-        <v>446</v>
+        <v>291</v>
       </c>
       <c r="B684">
         <v>5</v>
@@ -8914,7 +9085,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
-        <v>453</v>
+        <v>294</v>
       </c>
       <c r="B685">
         <v>5</v>
@@ -8922,7 +9093,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
-        <v>455</v>
+        <v>296</v>
       </c>
       <c r="B686">
         <v>5</v>
@@ -8930,7 +9101,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="B687">
         <v>5</v>
@@ -8938,7 +9109,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
-        <v>468</v>
+        <v>300</v>
       </c>
       <c r="B688">
         <v>5</v>
@@ -8946,7 +9117,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
-        <v>470</v>
+        <v>303</v>
       </c>
       <c r="B689">
         <v>5</v>
@@ -8954,7 +9125,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="B690">
         <v>5</v>
@@ -8962,7 +9133,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
-        <v>462</v>
+        <v>307</v>
       </c>
       <c r="B691">
         <v>5</v>
@@ -8970,7 +9141,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="B692">
         <v>5</v>
@@ -8978,7 +9149,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="B693">
         <v>5</v>
@@ -8986,7 +9157,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
       <c r="B694">
         <v>5</v>
@@ -8994,7 +9165,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
       <c r="B695">
         <v>5</v>
@@ -9002,7 +9173,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
-        <v>478</v>
+        <v>314</v>
       </c>
       <c r="B696">
         <v>5</v>
@@ -9010,7 +9181,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="B697">
         <v>5</v>
@@ -9018,7 +9189,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
-        <v>481</v>
+        <v>317</v>
       </c>
       <c r="B698">
         <v>5</v>
@@ -9026,7 +9197,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="B699">
         <v>5</v>
@@ -9034,7 +9205,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
-        <v>484</v>
+        <v>321</v>
       </c>
       <c r="B700">
         <v>5</v>
@@ -9042,7 +9213,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
-        <v>485</v>
+        <v>322</v>
       </c>
       <c r="B701">
         <v>5</v>
@@ -9050,7 +9221,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
-        <v>487</v>
+        <v>323</v>
       </c>
       <c r="B702">
         <v>5</v>
@@ -9058,7 +9229,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
-        <v>491</v>
+        <v>328</v>
       </c>
       <c r="B703">
         <v>5</v>
@@ -9066,7 +9237,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="B704">
         <v>5</v>
@@ -9074,7 +9245,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
-        <v>493</v>
+        <v>333</v>
       </c>
       <c r="B705">
         <v>5</v>
@@ -9082,7 +9253,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
-        <v>495</v>
+        <v>334</v>
       </c>
       <c r="B706">
         <v>5</v>
@@ -9090,7 +9261,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
-        <v>496</v>
+        <v>335</v>
       </c>
       <c r="B707">
         <v>5</v>
@@ -9098,7 +9269,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
-        <v>497</v>
+        <v>336</v>
       </c>
       <c r="B708">
         <v>5</v>
@@ -9106,7 +9277,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
-        <v>498</v>
+        <v>338</v>
       </c>
       <c r="B709">
         <v>5</v>
@@ -9114,7 +9285,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="B710">
         <v>5</v>
@@ -9122,7 +9293,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
-        <v>503</v>
+        <v>340</v>
       </c>
       <c r="B711">
         <v>5</v>
@@ -9130,7 +9301,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
-        <v>504</v>
+        <v>342</v>
       </c>
       <c r="B712">
         <v>5</v>
@@ -9138,7 +9309,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="B713">
         <v>5</v>
@@ -9146,7 +9317,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
-        <v>507</v>
+        <v>353</v>
       </c>
       <c r="B714">
         <v>5</v>
@@ -9154,7 +9325,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
       <c r="B715">
         <v>5</v>
@@ -9162,7 +9333,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
       <c r="B716">
         <v>5</v>
@@ -9170,7 +9341,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>512</v>
+        <v>359</v>
       </c>
       <c r="B717">
         <v>5</v>
@@ -9178,7 +9349,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B718">
         <v>5</v>
@@ -9186,7 +9357,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
-        <v>516</v>
+        <v>362</v>
       </c>
       <c r="B719">
         <v>5</v>
@@ -9194,7 +9365,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>517</v>
+        <v>363</v>
       </c>
       <c r="B720">
         <v>5</v>
@@ -9202,7 +9373,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
-        <v>518</v>
+        <v>364</v>
       </c>
       <c r="B721">
         <v>5</v>
@@ -9210,7 +9381,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>522</v>
+        <v>366</v>
       </c>
       <c r="B722">
         <v>5</v>
@@ -9218,7 +9389,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
-        <v>523</v>
+        <v>367</v>
       </c>
       <c r="B723">
         <v>5</v>
@@ -9226,7 +9397,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
-        <v>524</v>
+        <v>368</v>
       </c>
       <c r="B724">
         <v>5</v>
@@ -9234,7 +9405,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="B725">
         <v>5</v>
@@ -9242,7 +9413,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
-        <v>527</v>
+        <v>370</v>
       </c>
       <c r="B726">
         <v>5</v>
@@ -9250,7 +9421,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
-        <v>528</v>
+        <v>371</v>
       </c>
       <c r="B727">
         <v>5</v>
@@ -9258,7 +9429,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
-        <v>530</v>
+        <v>372</v>
       </c>
       <c r="B728">
         <v>5</v>
@@ -9266,7 +9437,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
-        <v>531</v>
+        <v>373</v>
       </c>
       <c r="B729">
         <v>5</v>
@@ -9274,7 +9445,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
-        <v>501</v>
+        <v>374</v>
       </c>
       <c r="B730">
         <v>5</v>
@@ -9282,7 +9453,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
-        <v>535</v>
+        <v>378</v>
       </c>
       <c r="B731">
         <v>5</v>
@@ -9290,7 +9461,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
-        <v>539</v>
+        <v>380</v>
       </c>
       <c r="B732">
         <v>5</v>
@@ -9298,7 +9469,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
-        <v>540</v>
+        <v>382</v>
       </c>
       <c r="B733">
         <v>5</v>
@@ -9306,7 +9477,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
-        <v>542</v>
+        <v>383</v>
       </c>
       <c r="B734">
         <v>5</v>
@@ -9314,7 +9485,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>544</v>
+        <v>386</v>
       </c>
       <c r="B735">
         <v>5</v>
@@ -9322,7 +9493,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
-        <v>546</v>
+        <v>388</v>
       </c>
       <c r="B736">
         <v>5</v>
@@ -9330,7 +9501,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="B737">
         <v>5</v>
@@ -9338,7 +9509,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="B738">
         <v>5</v>
@@ -9346,7 +9517,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
-        <v>551</v>
+        <v>395</v>
       </c>
       <c r="B739">
         <v>5</v>
@@ -9354,7 +9525,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
-        <v>553</v>
+        <v>396</v>
       </c>
       <c r="B740">
         <v>5</v>
@@ -9362,7 +9533,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
-        <v>556</v>
+        <v>402</v>
       </c>
       <c r="B741">
         <v>5</v>
@@ -9370,7 +9541,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>560</v>
+        <v>403</v>
       </c>
       <c r="B742">
         <v>5</v>
@@ -9378,7 +9549,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
-        <v>561</v>
+        <v>1035</v>
       </c>
       <c r="B743">
         <v>5</v>
@@ -9386,7 +9557,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>567</v>
+        <v>406</v>
       </c>
       <c r="B744">
         <v>5</v>
@@ -9394,7 +9565,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>568</v>
+        <v>408</v>
       </c>
       <c r="B745">
         <v>5</v>
@@ -9402,7 +9573,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
-        <v>569</v>
+        <v>409</v>
       </c>
       <c r="B746">
         <v>5</v>
@@ -9410,7 +9581,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
-        <v>570</v>
+        <v>1024</v>
       </c>
       <c r="B747">
         <v>5</v>
@@ -9418,7 +9589,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
-        <v>571</v>
+        <v>411</v>
       </c>
       <c r="B748">
         <v>5</v>
@@ -9426,7 +9597,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
-        <v>572</v>
+        <v>413</v>
       </c>
       <c r="B749">
         <v>5</v>
@@ -9434,7 +9605,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
-        <v>574</v>
+        <v>416</v>
       </c>
       <c r="B750">
         <v>5</v>
@@ -9442,7 +9613,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="B751">
         <v>5</v>
@@ -9450,7 +9621,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="B752">
         <v>5</v>
@@ -9458,7 +9629,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
-        <v>579</v>
+        <v>421</v>
       </c>
       <c r="B753">
         <v>5</v>
@@ -9466,7 +9637,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
-        <v>784</v>
+        <v>427</v>
       </c>
       <c r="B754">
         <v>5</v>
@@ -9474,7 +9645,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="B755">
         <v>5</v>
@@ -9482,7 +9653,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
-        <v>582</v>
+        <v>433</v>
       </c>
       <c r="B756">
         <v>5</v>
@@ -9490,7 +9661,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
-        <v>583</v>
+        <v>434</v>
       </c>
       <c r="B757">
         <v>5</v>
@@ -9498,7 +9669,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="B758">
         <v>5</v>
@@ -9506,7 +9677,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>586</v>
+        <v>438</v>
       </c>
       <c r="B759">
         <v>5</v>
@@ -9514,7 +9685,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>587</v>
+        <v>440</v>
       </c>
       <c r="B760">
         <v>5</v>
@@ -9522,7 +9693,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>588</v>
+        <v>442</v>
       </c>
       <c r="B761">
         <v>5</v>
@@ -9530,7 +9701,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>590</v>
+        <v>444</v>
       </c>
       <c r="B762">
         <v>5</v>
@@ -9538,7 +9709,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="B763">
         <v>5</v>
@@ -9546,7 +9717,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
-        <v>596</v>
+        <v>1051</v>
       </c>
       <c r="B764">
         <v>5</v>
@@ -9554,7 +9725,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>597</v>
+        <v>1053</v>
       </c>
       <c r="B765">
         <v>5</v>
@@ -9562,7 +9733,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>600</v>
+        <v>1073</v>
       </c>
       <c r="B766">
         <v>5</v>
@@ -9570,7 +9741,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>603</v>
+        <v>446</v>
       </c>
       <c r="B767">
         <v>5</v>
@@ -9578,7 +9749,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
-        <v>605</v>
+        <v>453</v>
       </c>
       <c r="B768">
         <v>5</v>
@@ -9586,7 +9757,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="B769">
         <v>5</v>
@@ -9594,7 +9765,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>608</v>
+        <v>460</v>
       </c>
       <c r="B770">
         <v>5</v>
@@ -9602,7 +9773,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>612</v>
+        <v>470</v>
       </c>
       <c r="B771">
         <v>5</v>
@@ -9610,7 +9781,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
       <c r="B772">
         <v>5</v>
@@ -9618,7 +9789,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
-        <v>615</v>
+        <v>1032</v>
       </c>
       <c r="B773">
         <v>5</v>
@@ -9626,7 +9797,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
-        <v>618</v>
+        <v>464</v>
       </c>
       <c r="B774">
         <v>5</v>
@@ -9634,7 +9805,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
-        <v>619</v>
+        <v>465</v>
       </c>
       <c r="B775">
         <v>5</v>
@@ -9642,7 +9813,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
-        <v>620</v>
+        <v>466</v>
       </c>
       <c r="B776">
         <v>5</v>
@@ -9650,7 +9821,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
-        <v>621</v>
+        <v>475</v>
       </c>
       <c r="B777">
         <v>5</v>
@@ -9658,7 +9829,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
-        <v>622</v>
+        <v>478</v>
       </c>
       <c r="B778">
         <v>5</v>
@@ -9666,7 +9837,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
-        <v>623</v>
+        <v>481</v>
       </c>
       <c r="B779">
         <v>5</v>
@@ -9674,7 +9845,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
-        <v>624</v>
+        <v>485</v>
       </c>
       <c r="B780">
         <v>5</v>
@@ -9682,7 +9853,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="B781">
         <v>5</v>
@@ -9690,7 +9861,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
-        <v>627</v>
+        <v>491</v>
       </c>
       <c r="B782">
         <v>5</v>
@@ -9698,7 +9869,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
-        <v>787</v>
+        <v>492</v>
       </c>
       <c r="B783">
         <v>5</v>
@@ -9706,7 +9877,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
       <c r="B784">
         <v>5</v>
@@ -9714,7 +9885,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
-        <v>630</v>
+        <v>497</v>
       </c>
       <c r="B785">
         <v>5</v>
@@ -9722,7 +9893,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
-        <v>631</v>
+        <v>498</v>
       </c>
       <c r="B786">
         <v>5</v>
@@ -9730,7 +9901,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
-        <v>632</v>
+        <v>500</v>
       </c>
       <c r="B787">
         <v>5</v>
@@ -9738,7 +9909,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
-        <v>634</v>
+        <v>503</v>
       </c>
       <c r="B788">
         <v>5</v>
@@ -9746,7 +9917,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
-        <v>635</v>
+        <v>504</v>
       </c>
       <c r="B789">
         <v>5</v>
@@ -9754,7 +9925,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
-        <v>637</v>
+        <v>505</v>
       </c>
       <c r="B790">
         <v>5</v>
@@ -9762,7 +9933,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
-        <v>638</v>
+        <v>507</v>
       </c>
       <c r="B791">
         <v>5</v>
@@ -9770,7 +9941,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
       <c r="B792">
         <v>5</v>
@@ -9778,7 +9949,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="B793">
         <v>5</v>
@@ -9786,7 +9957,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
-        <v>812</v>
+        <v>512</v>
       </c>
       <c r="B794">
         <v>5</v>
@@ -9794,7 +9965,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
-        <v>644</v>
+        <v>516</v>
       </c>
       <c r="B795">
         <v>5</v>
@@ -9802,7 +9973,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
-        <v>646</v>
+        <v>517</v>
       </c>
       <c r="B796">
         <v>5</v>
@@ -9810,7 +9981,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
-        <v>647</v>
+        <v>518</v>
       </c>
       <c r="B797">
         <v>5</v>
@@ -9818,7 +9989,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
-        <v>648</v>
+        <v>1050</v>
       </c>
       <c r="B798">
         <v>5</v>
@@ -9826,7 +9997,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
-        <v>649</v>
+        <v>522</v>
       </c>
       <c r="B799">
         <v>5</v>
@@ -9834,7 +10005,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
-        <v>650</v>
+        <v>1020</v>
       </c>
       <c r="B800">
         <v>5</v>
@@ -9842,7 +10013,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
-        <v>651</v>
+        <v>523</v>
       </c>
       <c r="B801">
         <v>5</v>
@@ -9850,7 +10021,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
-        <v>654</v>
+        <v>524</v>
       </c>
       <c r="B802">
         <v>5</v>
@@ -9858,7 +10029,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
-        <v>658</v>
+        <v>1072</v>
       </c>
       <c r="B803">
         <v>5</v>
@@ -9866,7 +10037,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
-        <v>660</v>
+        <v>1034</v>
       </c>
       <c r="B804">
         <v>5</v>
@@ -9874,7 +10045,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
-        <v>661</v>
+        <v>526</v>
       </c>
       <c r="B805">
         <v>5</v>
@@ -9882,7 +10053,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>662</v>
+        <v>527</v>
       </c>
       <c r="B806">
         <v>5</v>
@@ -9890,7 +10061,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
-        <v>663</v>
+        <v>528</v>
       </c>
       <c r="B807">
         <v>5</v>
@@ -9898,7 +10069,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
-        <v>664</v>
+        <v>531</v>
       </c>
       <c r="B808">
         <v>5</v>
@@ -9906,7 +10077,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
-        <v>665</v>
+        <v>501</v>
       </c>
       <c r="B809">
         <v>5</v>
@@ -9914,7 +10085,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
-        <v>666</v>
+        <v>1040</v>
       </c>
       <c r="B810">
         <v>5</v>
@@ -9922,7 +10093,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="B811">
         <v>5</v>
@@ -9930,7 +10101,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
-        <v>668</v>
+        <v>539</v>
       </c>
       <c r="B812">
         <v>5</v>
@@ -9938,7 +10109,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
-        <v>670</v>
+        <v>540</v>
       </c>
       <c r="B813">
         <v>5</v>
@@ -9946,7 +10117,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>669</v>
+        <v>542</v>
       </c>
       <c r="B814">
         <v>5</v>
@@ -9954,7 +10125,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
-        <v>671</v>
+        <v>548</v>
       </c>
       <c r="B815">
         <v>5</v>
@@ -9962,7 +10133,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
-        <v>674</v>
+        <v>550</v>
       </c>
       <c r="B816">
         <v>5</v>
@@ -9970,7 +10141,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
-        <v>676</v>
+        <v>551</v>
       </c>
       <c r="B817">
         <v>5</v>
@@ -9978,7 +10149,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
-        <v>677</v>
+        <v>553</v>
       </c>
       <c r="B818">
         <v>5</v>
@@ -9986,7 +10157,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
-        <v>678</v>
+        <v>1067</v>
       </c>
       <c r="B819">
         <v>5</v>
@@ -9994,7 +10165,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
-        <v>679</v>
+        <v>560</v>
       </c>
       <c r="B820">
         <v>5</v>
@@ -10002,7 +10173,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="B821">
         <v>5</v>
@@ -10010,7 +10181,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
-        <v>683</v>
+        <v>1029</v>
       </c>
       <c r="B822">
         <v>5</v>
@@ -10018,7 +10189,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
-        <v>685</v>
+        <v>567</v>
       </c>
       <c r="B823">
         <v>5</v>
@@ -10026,7 +10197,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
-        <v>687</v>
+        <v>568</v>
       </c>
       <c r="B824">
         <v>5</v>
@@ -10034,7 +10205,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
-        <v>690</v>
+        <v>569</v>
       </c>
       <c r="B825">
         <v>5</v>
@@ -10042,7 +10213,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
-        <v>691</v>
+        <v>570</v>
       </c>
       <c r="B826">
         <v>5</v>
@@ -10050,7 +10221,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
-        <v>693</v>
+        <v>572</v>
       </c>
       <c r="B827">
         <v>5</v>
@@ -10058,7 +10229,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
-        <v>695</v>
+        <v>574</v>
       </c>
       <c r="B828">
         <v>5</v>
@@ -10066,7 +10237,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
-        <v>697</v>
+        <v>575</v>
       </c>
       <c r="B829">
         <v>5</v>
@@ -10074,7 +10245,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
-        <v>698</v>
+        <v>576</v>
       </c>
       <c r="B830">
         <v>5</v>
@@ -10082,7 +10253,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
-        <v>699</v>
+        <v>580</v>
       </c>
       <c r="B831">
         <v>5</v>
@@ -10090,7 +10261,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
-        <v>701</v>
+        <v>582</v>
       </c>
       <c r="B832">
         <v>5</v>
@@ -10098,7 +10269,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
-        <v>702</v>
+        <v>583</v>
       </c>
       <c r="B833">
         <v>5</v>
@@ -10106,7 +10277,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
-        <v>704</v>
+        <v>586</v>
       </c>
       <c r="B834">
         <v>5</v>
@@ -10114,7 +10285,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
-        <v>707</v>
+        <v>587</v>
       </c>
       <c r="B835">
         <v>5</v>
@@ -10122,7 +10293,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>711</v>
+        <v>591</v>
       </c>
       <c r="B836">
         <v>5</v>
@@ -10130,7 +10301,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
-        <v>712</v>
+        <v>597</v>
       </c>
       <c r="B837">
         <v>5</v>
@@ -10138,7 +10309,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
-        <v>714</v>
+        <v>600</v>
       </c>
       <c r="B838">
         <v>5</v>
@@ -10146,7 +10317,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
-        <v>715</v>
+        <v>603</v>
       </c>
       <c r="B839">
         <v>5</v>
@@ -10154,7 +10325,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
-        <v>717</v>
+        <v>605</v>
       </c>
       <c r="B840">
         <v>5</v>
@@ -10162,7 +10333,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
-        <v>718</v>
+        <v>606</v>
       </c>
       <c r="B841">
         <v>5</v>
@@ -10170,7 +10341,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
-        <v>719</v>
+        <v>608</v>
       </c>
       <c r="B842">
         <v>5</v>
@@ -10178,7 +10349,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="B843">
         <v>5</v>
@@ -10186,7 +10357,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
-        <v>723</v>
+        <v>613</v>
       </c>
       <c r="B844">
         <v>5</v>
@@ -10194,7 +10365,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
-        <v>722</v>
+        <v>615</v>
       </c>
       <c r="B845">
         <v>5</v>
@@ -10202,7 +10373,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
-        <v>724</v>
+        <v>618</v>
       </c>
       <c r="B846">
         <v>5</v>
@@ -10210,7 +10381,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
-        <v>726</v>
+        <v>619</v>
       </c>
       <c r="B847">
         <v>5</v>
@@ -10218,7 +10389,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
-        <v>729</v>
+        <v>620</v>
       </c>
       <c r="B848">
         <v>5</v>
@@ -10226,7 +10397,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
-        <v>732</v>
+        <v>621</v>
       </c>
       <c r="B849">
         <v>5</v>
@@ -10234,7 +10405,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="B850">
         <v>5</v>
@@ -10242,7 +10413,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
-        <v>734</v>
+        <v>623</v>
       </c>
       <c r="B851">
         <v>5</v>
@@ -10250,7 +10421,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A852" t="s">
-        <v>735</v>
+        <v>624</v>
       </c>
       <c r="B852">
         <v>5</v>
@@ -10258,7 +10429,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A853" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="B853">
         <v>5</v>
@@ -10266,7 +10437,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
-        <v>737</v>
+        <v>627</v>
       </c>
       <c r="B854">
         <v>5</v>
@@ -10274,7 +10445,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A855" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="B855">
         <v>5</v>
@@ -10282,7 +10453,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
-        <v>742</v>
+        <v>630</v>
       </c>
       <c r="B856">
         <v>5</v>
@@ -10290,7 +10461,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
-        <v>744</v>
+        <v>631</v>
       </c>
       <c r="B857">
         <v>5</v>
@@ -10298,7 +10469,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
-        <v>745</v>
+        <v>632</v>
       </c>
       <c r="B858">
         <v>5</v>
@@ -10306,7 +10477,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
-        <v>747</v>
+        <v>634</v>
       </c>
       <c r="B859">
         <v>5</v>
@@ -10314,7 +10485,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
-        <v>748</v>
+        <v>635</v>
       </c>
       <c r="B860">
         <v>5</v>
@@ -10322,7 +10493,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
-        <v>750</v>
+        <v>1041</v>
       </c>
       <c r="B861">
         <v>5</v>
@@ -10330,7 +10501,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
-        <v>753</v>
+        <v>637</v>
       </c>
       <c r="B862">
         <v>5</v>
@@ -10338,7 +10509,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
-        <v>758</v>
+        <v>638</v>
       </c>
       <c r="B863">
         <v>5</v>
@@ -10346,7 +10517,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="B864">
         <v>5</v>
@@ -10354,7 +10525,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
-        <v>761</v>
+        <v>642</v>
       </c>
       <c r="B865">
         <v>5</v>
@@ -10362,7 +10533,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
-        <v>765</v>
+        <v>1045</v>
       </c>
       <c r="B866">
         <v>5</v>
@@ -10370,7 +10541,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="B867">
         <v>5</v>
@@ -10378,7 +10549,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
-        <v>768</v>
+        <v>644</v>
       </c>
       <c r="B868">
         <v>5</v>
@@ -10386,7 +10557,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="B869">
         <v>5</v>
@@ -10394,7 +10565,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
       <c r="B870">
         <v>5</v>
@@ -10402,7 +10573,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
-        <v>773</v>
+        <v>648</v>
       </c>
       <c r="B871">
         <v>5</v>
@@ -10410,7 +10581,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
-        <v>774</v>
+        <v>650</v>
       </c>
       <c r="B872">
         <v>5</v>
@@ -10418,7 +10589,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
-        <v>775</v>
+        <v>651</v>
       </c>
       <c r="B873">
         <v>5</v>
@@ -10426,7 +10597,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
-        <v>777</v>
+        <v>654</v>
       </c>
       <c r="B874">
         <v>5</v>
@@ -10434,7 +10605,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
-        <v>778</v>
+        <v>658</v>
       </c>
       <c r="B875">
         <v>5</v>
@@ -10442,7 +10613,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
-        <v>781</v>
+        <v>660</v>
       </c>
       <c r="B876">
         <v>5</v>
@@ -10450,7 +10621,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
-        <v>782</v>
+        <v>661</v>
       </c>
       <c r="B877">
         <v>5</v>
@@ -10458,7 +10629,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
-        <v>783</v>
+        <v>662</v>
       </c>
       <c r="B878">
         <v>5</v>
@@ -10466,7 +10637,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
-        <v>785</v>
+        <v>664</v>
       </c>
       <c r="B879">
         <v>5</v>
@@ -10474,7 +10645,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
-        <v>788</v>
+        <v>666</v>
       </c>
       <c r="B880">
         <v>5</v>
@@ -10482,7 +10653,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
-        <v>789</v>
+        <v>667</v>
       </c>
       <c r="B881">
         <v>5</v>
@@ -10490,7 +10661,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
-        <v>791</v>
+        <v>670</v>
       </c>
       <c r="B882">
         <v>5</v>
@@ -10498,7 +10669,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
-        <v>792</v>
+        <v>669</v>
       </c>
       <c r="B883">
         <v>5</v>
@@ -10506,7 +10677,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
-        <v>794</v>
+        <v>671</v>
       </c>
       <c r="B884">
         <v>5</v>
@@ -10514,7 +10685,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
-        <v>796</v>
+        <v>674</v>
       </c>
       <c r="B885">
         <v>5</v>
@@ -10522,7 +10693,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
-        <v>797</v>
+        <v>679</v>
       </c>
       <c r="B886">
         <v>5</v>
@@ -10530,7 +10701,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
-        <v>800</v>
+        <v>1023</v>
       </c>
       <c r="B887">
         <v>5</v>
@@ -10538,7 +10709,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
-        <v>801</v>
+        <v>1033</v>
       </c>
       <c r="B888">
         <v>5</v>
@@ -10546,7 +10717,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
-        <v>804</v>
+        <v>1046</v>
       </c>
       <c r="B889">
         <v>5</v>
@@ -10554,7 +10725,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
-        <v>803</v>
+        <v>1044</v>
       </c>
       <c r="B890">
         <v>5</v>
@@ -10562,7 +10733,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
-        <v>805</v>
+        <v>681</v>
       </c>
       <c r="B891">
         <v>5</v>
@@ -10570,7 +10741,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
-        <v>806</v>
+        <v>683</v>
       </c>
       <c r="B892">
         <v>5</v>
@@ -10578,7 +10749,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
-        <v>808</v>
+        <v>685</v>
       </c>
       <c r="B893">
         <v>5</v>
@@ -10586,7 +10757,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
-        <v>810</v>
+        <v>687</v>
       </c>
       <c r="B894">
         <v>5</v>
@@ -10594,7 +10765,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
-        <v>815</v>
+        <v>691</v>
       </c>
       <c r="B895">
         <v>5</v>
@@ -10602,7 +10773,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
-        <v>816</v>
+        <v>693</v>
       </c>
       <c r="B896">
         <v>5</v>
@@ -10610,7 +10781,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
-        <v>814</v>
+        <v>695</v>
       </c>
       <c r="B897">
         <v>5</v>
@@ -10618,7 +10789,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
-        <v>820</v>
+        <v>697</v>
       </c>
       <c r="B898">
         <v>5</v>
@@ -10626,7 +10797,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
-        <v>920</v>
+        <v>698</v>
       </c>
       <c r="B899">
         <v>5</v>
@@ -10634,7 +10805,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
-        <v>824</v>
+        <v>699</v>
       </c>
       <c r="B900">
         <v>5</v>
@@ -10642,7 +10813,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
-        <v>825</v>
+        <v>701</v>
       </c>
       <c r="B901">
         <v>5</v>
@@ -10650,7 +10821,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
-        <v>828</v>
+        <v>1018</v>
       </c>
       <c r="B902">
         <v>5</v>
@@ -10658,7 +10829,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
-        <v>829</v>
+        <v>1056</v>
       </c>
       <c r="B903">
         <v>5</v>
@@ -10666,7 +10837,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
       <c r="B904">
         <v>5</v>
@@ -10674,7 +10845,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
       <c r="B905">
         <v>5</v>
@@ -10682,7 +10853,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
-        <v>833</v>
+        <v>711</v>
       </c>
       <c r="B906">
         <v>5</v>
@@ -10690,7 +10861,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
-        <v>835</v>
+        <v>712</v>
       </c>
       <c r="B907">
         <v>5</v>
@@ -10698,7 +10869,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
-        <v>836</v>
+        <v>714</v>
       </c>
       <c r="B908">
         <v>5</v>
@@ -10706,7 +10877,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
-        <v>837</v>
+        <v>717</v>
       </c>
       <c r="B909">
         <v>5</v>
@@ -10714,7 +10885,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
-        <v>281</v>
+        <v>718</v>
       </c>
       <c r="B910">
         <v>5</v>
@@ -10722,7 +10893,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
-        <v>838</v>
+        <v>719</v>
       </c>
       <c r="B911">
         <v>5</v>
@@ -10730,7 +10901,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
-        <v>839</v>
+        <v>723</v>
       </c>
       <c r="B912">
         <v>5</v>
@@ -10738,7 +10909,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
-        <v>840</v>
+        <v>724</v>
       </c>
       <c r="B913">
         <v>5</v>
@@ -10746,7 +10917,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
-        <v>841</v>
+        <v>726</v>
       </c>
       <c r="B914">
         <v>5</v>
@@ -10754,7 +10925,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
-        <v>843</v>
+        <v>729</v>
       </c>
       <c r="B915">
         <v>5</v>
@@ -10762,7 +10933,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
-        <v>846</v>
+        <v>732</v>
       </c>
       <c r="B916">
         <v>5</v>
@@ -10770,7 +10941,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
-        <v>847</v>
+        <v>733</v>
       </c>
       <c r="B917">
         <v>5</v>
@@ -10778,7 +10949,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
-        <v>850</v>
+        <v>734</v>
       </c>
       <c r="B918">
         <v>5</v>
@@ -10786,7 +10957,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
-        <v>853</v>
+        <v>735</v>
       </c>
       <c r="B919">
         <v>5</v>
@@ -10794,7 +10965,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
-        <v>851</v>
+        <v>1030</v>
       </c>
       <c r="B920">
         <v>5</v>
@@ -10802,7 +10973,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
-        <v>859</v>
+        <v>736</v>
       </c>
       <c r="B921">
         <v>5</v>
@@ -10810,7 +10981,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
-        <v>860</v>
+        <v>1064</v>
       </c>
       <c r="B922">
         <v>5</v>
@@ -10818,7 +10989,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
-        <v>861</v>
+        <v>1025</v>
       </c>
       <c r="B923">
         <v>5</v>
@@ -10826,7 +10997,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
-        <v>862</v>
+        <v>741</v>
       </c>
       <c r="B924">
         <v>5</v>
@@ -10834,7 +11005,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
-        <v>863</v>
+        <v>744</v>
       </c>
       <c r="B925">
         <v>5</v>
@@ -10842,7 +11013,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
-        <v>331</v>
+        <v>745</v>
       </c>
       <c r="B926">
         <v>5</v>
@@ -10850,7 +11021,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
-        <v>866</v>
+        <v>747</v>
       </c>
       <c r="B927">
         <v>5</v>
@@ -10858,7 +11029,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="B928">
         <v>5</v>
@@ -10866,7 +11037,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
-        <v>868</v>
+        <v>1047</v>
       </c>
       <c r="B929">
         <v>5</v>
@@ -10874,7 +11045,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
-        <v>869</v>
+        <v>1068</v>
       </c>
       <c r="B930">
         <v>5</v>
@@ -10882,7 +11053,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
-        <v>870</v>
+        <v>758</v>
       </c>
       <c r="B931">
         <v>5</v>
@@ -10890,7 +11061,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
-        <v>874</v>
+        <v>760</v>
       </c>
       <c r="B932">
         <v>5</v>
@@ -10898,7 +11069,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
-        <v>875</v>
+        <v>1031</v>
       </c>
       <c r="B933">
         <v>5</v>
@@ -10906,7 +11077,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
-        <v>876</v>
+        <v>765</v>
       </c>
       <c r="B934">
         <v>5</v>
@@ -10914,7 +11085,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
-        <v>878</v>
+        <v>768</v>
       </c>
       <c r="B935">
         <v>5</v>
@@ -10922,7 +11093,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
-        <v>877</v>
+        <v>772</v>
       </c>
       <c r="B936">
         <v>5</v>
@@ -10930,7 +11101,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
-        <v>879</v>
+        <v>773</v>
       </c>
       <c r="B937">
         <v>5</v>
@@ -10938,7 +11109,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
-        <v>880</v>
+        <v>1028</v>
       </c>
       <c r="B938">
         <v>5</v>
@@ -10946,7 +11117,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
-        <v>882</v>
+        <v>774</v>
       </c>
       <c r="B939">
         <v>5</v>
@@ -10954,7 +11125,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
-        <v>881</v>
+        <v>777</v>
       </c>
       <c r="B940">
         <v>5</v>
@@ -10962,7 +11133,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
-        <v>884</v>
+        <v>778</v>
       </c>
       <c r="B941">
         <v>5</v>
@@ -10970,7 +11141,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
-        <v>885</v>
+        <v>781</v>
       </c>
       <c r="B942">
         <v>5</v>
@@ -10978,7 +11149,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
-        <v>886</v>
+        <v>782</v>
       </c>
       <c r="B943">
         <v>5</v>
@@ -10986,7 +11157,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
-        <v>887</v>
+        <v>783</v>
       </c>
       <c r="B944">
         <v>5</v>
@@ -10994,7 +11165,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
-        <v>888</v>
+        <v>785</v>
       </c>
       <c r="B945">
         <v>5</v>
@@ -11002,7 +11173,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
-        <v>895</v>
+        <v>1049</v>
       </c>
       <c r="B946">
         <v>5</v>
@@ -11010,7 +11181,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
-        <v>896</v>
+        <v>1059</v>
       </c>
       <c r="B947">
         <v>5</v>
@@ -11018,7 +11189,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
-        <v>897</v>
+        <v>788</v>
       </c>
       <c r="B948">
         <v>5</v>
@@ -11026,7 +11197,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
-        <v>899</v>
+        <v>789</v>
       </c>
       <c r="B949">
         <v>5</v>
@@ -11034,7 +11205,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
-        <v>900</v>
+        <v>1069</v>
       </c>
       <c r="B950">
         <v>5</v>
@@ -11042,7 +11213,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
-        <v>903</v>
+        <v>791</v>
       </c>
       <c r="B951">
         <v>5</v>
@@ -11050,7 +11221,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
-        <v>904</v>
+        <v>794</v>
       </c>
       <c r="B952">
         <v>5</v>
@@ -11058,7 +11229,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
-        <v>906</v>
+        <v>797</v>
       </c>
       <c r="B953">
         <v>5</v>
@@ -11066,7 +11237,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
-        <v>907</v>
+        <v>800</v>
       </c>
       <c r="B954">
         <v>5</v>
@@ -11074,7 +11245,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
-        <v>908</v>
+        <v>801</v>
       </c>
       <c r="B955">
         <v>5</v>
@@ -11082,7 +11253,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
-        <v>912</v>
+        <v>804</v>
       </c>
       <c r="B956">
         <v>5</v>
@@ -11090,7 +11261,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
-        <v>915</v>
+        <v>803</v>
       </c>
       <c r="B957">
         <v>5</v>
@@ -11098,7 +11269,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
-        <v>916</v>
+        <v>805</v>
       </c>
       <c r="B958">
         <v>5</v>
@@ -11106,7 +11277,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
-        <v>918</v>
+        <v>806</v>
       </c>
       <c r="B959">
         <v>5</v>
@@ -11114,7 +11285,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
-        <v>923</v>
+        <v>808</v>
       </c>
       <c r="B960">
         <v>5</v>
@@ -11122,7 +11293,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
-        <v>924</v>
+        <v>815</v>
       </c>
       <c r="B961">
         <v>5</v>
@@ -11130,7 +11301,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
-        <v>925</v>
+        <v>814</v>
       </c>
       <c r="B962">
         <v>5</v>
@@ -11138,7 +11309,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
-        <v>927</v>
+        <v>820</v>
       </c>
       <c r="B963">
         <v>5</v>
@@ -11146,7 +11317,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B964">
         <v>5</v>
@@ -11154,7 +11325,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
-        <v>931</v>
+        <v>824</v>
       </c>
       <c r="B965">
         <v>5</v>
@@ -11162,7 +11333,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
-        <v>933</v>
+        <v>825</v>
       </c>
       <c r="B966">
         <v>5</v>
@@ -11170,7 +11341,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
-        <v>934</v>
+        <v>828</v>
       </c>
       <c r="B967">
         <v>5</v>
@@ -11178,7 +11349,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
-        <v>936</v>
+        <v>1055</v>
       </c>
       <c r="B968">
         <v>5</v>
@@ -11186,7 +11357,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
-        <v>937</v>
+        <v>832</v>
       </c>
       <c r="B969">
         <v>5</v>
@@ -11194,7 +11365,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
-        <v>939</v>
+        <v>835</v>
       </c>
       <c r="B970">
         <v>5</v>
@@ -11202,7 +11373,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
-        <v>940</v>
+        <v>836</v>
       </c>
       <c r="B971">
         <v>5</v>
@@ -11210,7 +11381,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
-        <v>941</v>
+        <v>837</v>
       </c>
       <c r="B972">
         <v>5</v>
@@ -11218,7 +11389,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
-        <v>943</v>
+        <v>839</v>
       </c>
       <c r="B973">
         <v>5</v>
@@ -11226,7 +11397,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
-        <v>942</v>
+        <v>840</v>
       </c>
       <c r="B974">
         <v>5</v>
@@ -11234,7 +11405,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
-        <v>946</v>
+        <v>841</v>
       </c>
       <c r="B975">
         <v>5</v>
@@ -11242,7 +11413,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
-        <v>949</v>
+        <v>847</v>
       </c>
       <c r="B976">
         <v>5</v>
@@ -11250,7 +11421,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A977" t="s">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="B977">
         <v>5</v>
@@ -11258,7 +11429,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A978" t="s">
-        <v>952</v>
+        <v>853</v>
       </c>
       <c r="B978">
         <v>5</v>
@@ -11266,7 +11437,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A979" t="s">
-        <v>954</v>
+        <v>851</v>
       </c>
       <c r="B979">
         <v>5</v>
@@ -11274,7 +11445,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A980" t="s">
-        <v>61</v>
+        <v>859</v>
       </c>
       <c r="B980">
         <v>5</v>
@@ -11282,7 +11453,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A981" t="s">
-        <v>961</v>
+        <v>860</v>
       </c>
       <c r="B981">
         <v>5</v>
@@ -11290,7 +11461,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A982" t="s">
-        <v>962</v>
+        <v>861</v>
       </c>
       <c r="B982">
         <v>5</v>
@@ -11298,7 +11469,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A983" t="s">
-        <v>963</v>
+        <v>862</v>
       </c>
       <c r="B983">
         <v>5</v>
@@ -11306,7 +11477,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A984" t="s">
-        <v>964</v>
+        <v>863</v>
       </c>
       <c r="B984">
         <v>5</v>
@@ -11314,7 +11485,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A985" t="s">
-        <v>965</v>
+        <v>331</v>
       </c>
       <c r="B985">
         <v>5</v>
@@ -11322,7 +11493,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A986" t="s">
-        <v>967</v>
+        <v>866</v>
       </c>
       <c r="B986">
         <v>5</v>
@@ -11330,7 +11501,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A987" t="s">
-        <v>968</v>
+        <v>868</v>
       </c>
       <c r="B987">
         <v>5</v>
@@ -11338,7 +11509,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A988" t="s">
-        <v>969</v>
+        <v>869</v>
       </c>
       <c r="B988">
         <v>5</v>
@@ -11346,7 +11517,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A989" t="s">
-        <v>971</v>
+        <v>870</v>
       </c>
       <c r="B989">
         <v>5</v>
@@ -11354,7 +11525,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A990" t="s">
-        <v>972</v>
+        <v>874</v>
       </c>
       <c r="B990">
         <v>5</v>
@@ -11362,7 +11533,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A991" t="s">
-        <v>973</v>
+        <v>875</v>
       </c>
       <c r="B991">
         <v>5</v>
@@ -11370,7 +11541,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A992" t="s">
-        <v>974</v>
+        <v>876</v>
       </c>
       <c r="B992">
         <v>5</v>
@@ -11378,7 +11549,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A993" t="s">
-        <v>976</v>
+        <v>878</v>
       </c>
       <c r="B993">
         <v>5</v>
@@ -11386,7 +11557,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A994" t="s">
-        <v>980</v>
+        <v>877</v>
       </c>
       <c r="B994">
         <v>5</v>
@@ -11394,7 +11565,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A995" t="s">
-        <v>978</v>
+        <v>879</v>
       </c>
       <c r="B995">
         <v>5</v>
@@ -11402,7 +11573,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A996" t="s">
-        <v>982</v>
+        <v>880</v>
       </c>
       <c r="B996">
         <v>5</v>
@@ -11410,7 +11581,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A997" t="s">
-        <v>981</v>
+        <v>882</v>
       </c>
       <c r="B997">
         <v>5</v>
@@ -11418,7 +11589,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A998" t="s">
-        <v>984</v>
+        <v>881</v>
       </c>
       <c r="B998">
         <v>5</v>
@@ -11426,7 +11597,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A999" t="s">
-        <v>985</v>
+        <v>884</v>
       </c>
       <c r="B999">
         <v>5</v>
@@ -11434,7 +11605,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1000" t="s">
-        <v>987</v>
+        <v>885</v>
       </c>
       <c r="B1000">
         <v>5</v>
@@ -11442,7 +11613,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1001" t="s">
-        <v>988</v>
+        <v>886</v>
       </c>
       <c r="B1001">
         <v>5</v>
@@ -11450,7 +11621,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1002" t="s">
-        <v>991</v>
+        <v>887</v>
       </c>
       <c r="B1002">
         <v>5</v>
@@ -11458,7 +11629,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1003" t="s">
-        <v>993</v>
+        <v>888</v>
       </c>
       <c r="B1003">
         <v>5</v>
@@ -11466,7 +11637,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1004" t="s">
-        <v>994</v>
+        <v>896</v>
       </c>
       <c r="B1004">
         <v>5</v>
@@ -11474,7 +11645,7 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1005" t="s">
-        <v>996</v>
+        <v>897</v>
       </c>
       <c r="B1005">
         <v>5</v>
@@ -11482,7 +11653,7 @@
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1006" t="s">
-        <v>997</v>
+        <v>899</v>
       </c>
       <c r="B1006">
         <v>5</v>
@@ -11490,7 +11661,7 @@
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1007" t="s">
-        <v>998</v>
+        <v>900</v>
       </c>
       <c r="B1007">
         <v>5</v>
@@ -11498,7 +11669,7 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1008" t="s">
-        <v>1001</v>
+        <v>903</v>
       </c>
       <c r="B1008">
         <v>5</v>
@@ -11506,7 +11677,7 @@
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1009" t="s">
-        <v>1003</v>
+        <v>904</v>
       </c>
       <c r="B1009">
         <v>5</v>
@@ -11514,7 +11685,7 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1010" t="s">
-        <v>1004</v>
+        <v>906</v>
       </c>
       <c r="B1010">
         <v>5</v>
@@ -11522,7 +11693,7 @@
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1011" t="s">
-        <v>1005</v>
+        <v>907</v>
       </c>
       <c r="B1011">
         <v>5</v>
@@ -11530,7 +11701,7 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1012" t="s">
-        <v>1006</v>
+        <v>908</v>
       </c>
       <c r="B1012">
         <v>5</v>
@@ -11538,7 +11709,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1013" t="s">
-        <v>1007</v>
+        <v>1054</v>
       </c>
       <c r="B1013">
         <v>5</v>
@@ -11546,7 +11717,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1014" t="s">
-        <v>1009</v>
+        <v>916</v>
       </c>
       <c r="B1014">
         <v>5</v>
@@ -11554,7 +11725,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1015" t="s">
-        <v>1008</v>
+        <v>923</v>
       </c>
       <c r="B1015">
         <v>5</v>
@@ -11562,7 +11733,7 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1016" t="s">
-        <v>1011</v>
+        <v>924</v>
       </c>
       <c r="B1016">
         <v>5</v>
@@ -11570,7 +11741,7 @@
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1017" t="s">
-        <v>1013</v>
+        <v>925</v>
       </c>
       <c r="B1017">
         <v>5</v>
@@ -11578,14 +11749,470 @@
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1018" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1018">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1019" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1019">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1020" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1020">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1021" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1021">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1022" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1022">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1023" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1023">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1024" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1024">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1025" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1025">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1026" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1026">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1027" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1027">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1028" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1028">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1029" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1029">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1030" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1030">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1031" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1031">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1032" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1032">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1033" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1033">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1034" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1034">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1035" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1035">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1036" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1037" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1037">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1038" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1038">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1039" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1039">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1040" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1040">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1041" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1041">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1042" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1042">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1043" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1043">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1044" t="s">
+        <v>972</v>
+      </c>
+      <c r="B1044">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1045" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1045">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1046" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1046">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1047" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1047">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1048" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1049" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1049">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1050" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1050">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1051" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1051">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1052" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1052">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1053" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1053">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1054" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1054">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1055" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1055">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1056" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1056">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1057" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1057">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1058" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1058">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1059" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1060" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1060">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1061" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1061">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1062" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1062">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1063" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1063">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1064" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1064">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1065" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1065">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1066" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1066">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1067" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1067">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1068" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1068">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1069" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1069">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1070" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1070">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1071" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1071">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1072" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1072">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1073" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1073">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1074" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1074">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1075" t="s">
         <v>1016</v>
       </c>
-      <c r="B1018">
+      <c r="B1075">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B1018">
+  <sortState ref="A2:B1075">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
